--- a/Documents/Results/Side-by-side_33IDs_SD.xlsx
+++ b/Documents/Results/Side-by-side_33IDs_SD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
   <si>
     <t>CAN ID</t>
   </si>
@@ -185,14 +185,36 @@
   <si>
     <t>1 duplicate</t>
   </si>
+  <si>
+    <t>0x18n</t>
+  </si>
+  <si>
+    <t>0x20n</t>
+  </si>
+  <si>
+    <t>0x28n</t>
+  </si>
+  <si>
+    <t>0x30n</t>
+  </si>
+  <si>
+    <t>0x38n</t>
+  </si>
+  <si>
+    <t>0x40n</t>
+  </si>
+  <si>
+    <t>0x70n</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -230,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -318,12 +340,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -353,7 +412,18 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +481,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -422,9 +492,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$40</c:f>
+              <c:f>Sheet1!$G$42</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0.99871229214230395</c:v>
@@ -438,7 +508,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$4</c:f>
+              <c:f>Sheet1!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -450,7 +520,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -461,7 +531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$40</c:f>
+              <c:f>Sheet1!$R$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -477,7 +547,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$4</c:f>
+              <c:f>Sheet1!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -489,7 +559,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -500,7 +570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$40</c:f>
+              <c:f>Sheet1!$T$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -516,7 +586,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$4</c:f>
+              <c:f>Sheet1!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -528,7 +598,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -539,7 +609,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$40</c:f>
+              <c:f>Sheet1!$V$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -555,7 +625,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$4</c:f>
+              <c:f>Sheet1!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -567,7 +637,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -578,7 +648,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$40</c:f>
+              <c:f>Sheet1!$X$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -594,7 +664,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$4</c:f>
+              <c:f>Sheet1!$AO$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -606,7 +676,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,7 +687,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$40</c:f>
+              <c:f>Sheet1!$AO$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -633,7 +703,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$4</c:f>
+              <c:f>Sheet1!$AQ$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -645,7 +715,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -656,7 +726,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$40</c:f>
+              <c:f>Sheet1!$AQ$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -672,7 +742,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$4</c:f>
+              <c:f>Sheet1!$AS$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -684,7 +754,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AR$40</c:f>
+              <c:f>Sheet1!$AS$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -711,7 +781,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$4</c:f>
+              <c:f>Sheet1!$AU$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -723,7 +793,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$40</c:f>
+              <c:f>Sheet1!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AT$40</c:f>
+              <c:f>Sheet1!$AU$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="1"/>
@@ -754,11 +824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102117376"/>
-        <c:axId val="102119296"/>
+        <c:axId val="52234880"/>
+        <c:axId val="52237056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102117376"/>
+        <c:axId val="52234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +841,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102119296"/>
+        <c:crossAx val="52237056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -779,7 +849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102119296"/>
+        <c:axId val="52237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -791,11 +861,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102117376"/>
+        <c:crossAx val="52234880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -883,9 +953,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -973,16 +1043,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -990,10 +1060,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$39</c:f>
+              <c:f>Sheet1!$G$6:$G$40</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:formatCode>0.000%</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99875850754871753</c:v>
                 </c:pt>
@@ -1081,8 +1151,8 @@
                 <c:pt idx="28">
                   <c:v>0.99871422554257461</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.9991128853404303</c:v>
+                <c:pt idx="29">
+                  <c:v>0.99870124608520106</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.9991128853404303</c:v>
@@ -1091,6 +1161,9 @@
                   <c:v>0.9991128853404303</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>0.9991128853404303</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.9991128853404303</c:v>
                 </c:pt>
               </c:numCache>
@@ -1102,7 +1175,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$Q$4</c:f>
+              <c:f>Sheet1!$R$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1114,9 +1187,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -1204,16 +1277,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -1221,10 +1294,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$39</c:f>
+              <c:f>Sheet1!$R$6:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99727315050879017</c:v>
                 </c:pt>
@@ -1312,16 +1385,16 @@
                 <c:pt idx="28">
                   <c:v>0.99725110288412511</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.99379019738301178</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.99301397205588826</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.99390108671545796</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.99290308272344197</c:v>
                 </c:pt>
               </c:numCache>
@@ -1333,7 +1406,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$4</c:f>
+              <c:f>Sheet1!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1345,9 +1418,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -1435,16 +1508,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -1452,10 +1525,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$6:$S$39</c:f>
+              <c:f>Sheet1!$T$6:$T$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99765003214578674</c:v>
                 </c:pt>
@@ -1543,16 +1616,16 @@
                 <c:pt idx="28">
                   <c:v>0.99767230486155756</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.9944555333776891</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.99367930805056559</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.99390108671545796</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.99423375471279662</c:v>
                 </c:pt>
               </c:numCache>
@@ -1564,7 +1637,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$U$4</c:f>
+              <c:f>Sheet1!$V$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1576,9 +1649,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -1666,16 +1739,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -1683,10 +1756,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$U$6:$U$39</c:f>
+              <c:f>Sheet1!$V$6:$V$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99694060788791095</c:v>
                 </c:pt>
@@ -1774,16 +1847,16 @@
                 <c:pt idx="28">
                   <c:v>0.99700724910771688</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.99157241073408742</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.99212685739631845</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.99312486138833445</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.99279219339099578</c:v>
                 </c:pt>
               </c:numCache>
@@ -1795,7 +1868,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$W$4</c:f>
+              <c:f>Sheet1!$X$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1807,9 +1880,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -1897,16 +1970,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -1914,10 +1987,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$6:$W$39</c:f>
+              <c:f>Sheet1!$X$6:$X$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.9976056931296694</c:v>
                 </c:pt>
@@ -2005,19 +2078,19 @@
                 <c:pt idx="28">
                   <c:v>0.99762796781130147</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="0.0000%">
+                <c:pt idx="30" formatCode="0.0000%">
                   <c:v>7.2588219721654405E-4</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.99423375471279662</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.99412286538035044</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.99367930805056559</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.9944555333776891</c:v>
                 </c:pt>
               </c:numCache>
@@ -2029,7 +2102,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AN$4</c:f>
+              <c:f>Sheet1!$AO$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2041,9 +2114,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -2131,16 +2204,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -2148,10 +2221,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AN$6:$AN$39</c:f>
+              <c:f>Sheet1!$AO$6:$AO$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.68796417407497723</c:v>
                 </c:pt>
@@ -2239,16 +2312,16 @@
                 <c:pt idx="28">
                   <c:v>0.58533773748032547</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.73020625415834994</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.78221335107562651</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.6964958970946995</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.74595253936571304</c:v>
                 </c:pt>
               </c:numCache>
@@ -2260,7 +2333,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AP$4</c:f>
+              <c:f>Sheet1!$AQ$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2272,9 +2345,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -2362,16 +2435,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -2379,10 +2452,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AP$6:$AP$39</c:f>
+              <c:f>Sheet1!$AQ$6:$AQ$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.69849469040281997</c:v>
                 </c:pt>
@@ -2470,16 +2543,16 @@
                 <c:pt idx="28">
                   <c:v>0.56336872907845437</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.74007540474606348</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.78077178975382566</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.70802838766910625</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.71900643158128186</c:v>
                 </c:pt>
               </c:numCache>
@@ -2491,7 +2564,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AR$4</c:f>
+              <c:f>Sheet1!$AS$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2503,9 +2576,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -2593,16 +2666,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -2610,10 +2683,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AR$6:$AR$39</c:f>
+              <c:f>Sheet1!$AS$6:$AS$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.68463874786618484</c:v>
                 </c:pt>
@@ -2701,16 +2774,16 @@
                 <c:pt idx="28">
                   <c:v>0.55592010463543862</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.75149700598802394</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.77323131514748278</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.6881791971612331</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.73297848746950545</c:v>
                 </c:pt>
               </c:numCache>
@@ -2722,7 +2795,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AT$4</c:f>
+              <c:f>Sheet1!$AU$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2734,9 +2807,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$6:$D$39</c:f>
+              <c:f>Sheet1!$D$6:$D$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0x187</c:v>
                 </c:pt>
@@ -2824,16 +2897,16 @@
                 <c:pt idx="28">
                   <c:v>0x40D</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0x707</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0x709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0x70B</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0x70D</c:v>
                 </c:pt>
               </c:strCache>
@@ -2841,10 +2914,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AT$6:$AT$39</c:f>
+              <c:f>Sheet1!$AU$6:$AU$40</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.68747644489768767</c:v>
                 </c:pt>
@@ -2932,16 +3005,16 @@
                 <c:pt idx="28">
                   <c:v>0.57540623822297099</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.73552894211576847</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.77134619649589709</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.71257485029940115</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.73076070082058109</c:v>
                 </c:pt>
               </c:numCache>
@@ -2957,10 +3030,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Y$6:$Y$39</c:f>
+              <c:f>Sheet1!$Z$6:$Z$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99855898197618997</c:v>
                 </c:pt>
@@ -3048,19 +3121,19 @@
                 <c:pt idx="28">
                   <c:v>0.99995566294974392</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="0.0000%">
+                <c:pt idx="30" formatCode="0.0000%">
                   <c:v>1.3648153953441041E-2</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>0.9925704147261033</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>0.99345752938567311</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>0.99478820137502777</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.99500998003992014</c:v>
                 </c:pt>
               </c:numCache>
@@ -3072,7 +3145,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$AA$4</c:f>
+              <c:f>Sheet1!$AB$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3084,10 +3157,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AA$6:$AA$39</c:f>
+              <c:f>Sheet1!$AB$6:$AB$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.99549958986410092</c:v>
                 </c:pt>
@@ -3175,19 +3248,22 @@
                 <c:pt idx="28">
                   <c:v>0.99545545234875521</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="0.0000%">
+                <c:pt idx="29">
+                  <c:v>0.99544174832610577</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00000%">
                   <c:v>3.4605029290272368E-5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.99046351740962524</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.99046351740962524</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0.99046351740962524</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.99057440674207142</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>0.99046351740962524</c:v>
                 </c:pt>
               </c:numCache>
@@ -3203,11 +3279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="144"/>
-        <c:axId val="102205696"/>
-        <c:axId val="102207488"/>
+        <c:axId val="52310784"/>
+        <c:axId val="52312320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102205696"/>
+        <c:axId val="52310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3216,7 +3292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102207488"/>
+        <c:crossAx val="52312320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3224,7 +3300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102207488"/>
+        <c:axId val="52312320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3250,11 +3326,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102205696"/>
+        <c:crossAx val="52310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3277,20 +3353,239 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Existing</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$B$14,Sheet2!$B$19,Sheet2!$B$24,Sheet2!$B$29,Sheet2!$B$35,Sheet2!$B$40,Sheet2!$B$47)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0x18n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0x20n</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0x28n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0x30n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0x38n</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0x40n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0x70n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$H$14,Sheet2!$H$19,Sheet2!$H$24,Sheet2!$H$29,Sheet2!$H$35,Sheet2!$H$40,Sheet2!$H$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.67208027022758199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59301030276495392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59041659969961813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58142731258001412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64957791689573841</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57542521766599974</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73871701042359728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>New</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Sheet2!$B$14,Sheet2!$B$19,Sheet2!$B$24,Sheet2!$B$29,Sheet2!$B$35,Sheet2!$B$40,Sheet2!$B$47)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0x18n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0x20n</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0x28n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0x30n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0x38n</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0x40n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0x70n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet2!$E$14,Sheet2!$E$19,Sheet2!$E$24,Sheet2!$E$29,Sheet2!$E$35,Sheet2!$E$40,Sheet2!$E$47)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.99543062671628602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99544993543452842</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9954443933339614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99544993543452842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99543777821128987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99544993543452842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99049123974273678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="178283648"/>
+        <c:axId val="178285568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="178283648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178285568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="178285568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178283648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>288043</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>93261</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549779</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>344435</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>68714</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>566150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>112858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3313,13 +3608,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>99581</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>93807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>30308</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3336,6 +3631,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3631,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AT40"/>
+  <dimension ref="C2:AU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,43 +3972,44 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="6"/>
-    <col min="18" max="18" width="12.28515625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="11" style="6" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.140625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.5703125" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" customWidth="1"/>
-    <col min="33" max="33" width="12" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="37" max="37" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="6"/>
+    <col min="19" max="19" width="12.28515625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="11" style="6" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="36" max="36" width="11" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="H2" t="s">
+    <row r="2" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="3:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AM3" t="s">
+    <row r="3" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="3:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>34</v>
       </c>
@@ -3688,139 +4019,141 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="H4" s="20"/>
+      <c r="J4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="N4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R4"/>
-      <c r="S4" s="22" t="s">
+      <c r="S4"/>
+      <c r="T4" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="T4"/>
-      <c r="U4" s="22" t="s">
+      <c r="U4"/>
+      <c r="V4" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="X4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" t="s">
+      <c r="AA4" s="6"/>
+      <c r="AB4" t="s">
         <v>55</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>42</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>43</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>44</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>45</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>42</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>43</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AS4" t="s">
         <v>44</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:47" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="2"/>
+      <c r="I5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="M5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="O5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>38</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="6"/>
-      <c r="AE5" s="7" t="s">
+      <c r="AA5" s="6"/>
+      <c r="AF5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AG5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AH5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AI5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AK5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AL5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AL5" s="9" t="s">
+      <c r="AM5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>38</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>0</v>
       </c>
@@ -3833,146 +4166,147 @@
       <c r="F6" s="2">
         <v>45051</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="31">
         <f>F6/$E6</f>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="3"/>
+      <c r="I6" s="10">
         <v>44995</v>
       </c>
-      <c r="I6" s="11">
-        <f>H6/$E6</f>
+      <c r="J6" s="11">
+        <f>I6/$E6</f>
         <v>0.99751701509743496</v>
       </c>
-      <c r="J6" s="12">
+      <c r="K6" s="12">
         <v>44982</v>
       </c>
-      <c r="K6" s="11">
-        <f>J6/$E6</f>
+      <c r="L6" s="11">
+        <f>K6/$E6</f>
         <v>0.99722881149267295</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>45002</v>
       </c>
-      <c r="M6" s="11">
-        <f>L6/$E6</f>
+      <c r="N6" s="11">
+        <f>M6/$E6</f>
         <v>0.99767220165384529</v>
       </c>
-      <c r="N6" s="18">
+      <c r="O6" s="18">
         <v>45000</v>
       </c>
-      <c r="O6" s="13">
-        <f>N6/$E6</f>
+      <c r="P6" s="13">
+        <f>O6/$E6</f>
         <v>0.99762786263772807</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>44984</v>
       </c>
-      <c r="Q6" s="1">
-        <f>P6/$E6</f>
+      <c r="R6" s="1">
+        <f>Q6/$E6</f>
         <v>0.99727315050879017</v>
       </c>
-      <c r="R6" s="5">
+      <c r="S6" s="5">
         <v>45001</v>
       </c>
-      <c r="S6" s="1">
-        <f>R6/$E6</f>
+      <c r="T6" s="1">
+        <f>S6/$E6</f>
         <v>0.99765003214578674</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <v>44969</v>
       </c>
-      <c r="U6" s="1">
-        <f>T6/$E6</f>
+      <c r="V6" s="1">
+        <f>U6/$E6</f>
         <v>0.99694060788791095</v>
       </c>
-      <c r="V6" s="5">
+      <c r="W6" s="5">
         <v>44999</v>
       </c>
-      <c r="W6" s="1">
-        <f>V6/$E6</f>
+      <c r="X6" s="1">
+        <f>W6/$E6</f>
         <v>0.9976056931296694</v>
       </c>
-      <c r="X6" s="24">
+      <c r="Y6" s="24">
         <v>45042</v>
       </c>
-      <c r="Y6" s="25">
-        <f t="shared" ref="Y6:Y39" si="0">X6/$E6</f>
+      <c r="Z6" s="25">
+        <f t="shared" ref="Z6:Z40" si="0">Y6/$E6</f>
         <v>0.99855898197618997</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AA6" s="6">
         <v>44904</v>
       </c>
-      <c r="AA6" s="25">
-        <f t="shared" ref="AA6:AA39" si="1">Z6/$E6</f>
+      <c r="AB6" s="25">
+        <f t="shared" ref="AB6:AB40" si="1">AA6/$E6</f>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>44920</v>
       </c>
-      <c r="AC6" s="25">
-        <f t="shared" ref="AC6:AC39" si="2">AB6/$E6</f>
+      <c r="AD6" s="25">
+        <f t="shared" ref="AD6:AD40" si="2">AC6/$E6</f>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="10">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="10">
         <v>41178</v>
       </c>
-      <c r="AF6" s="11">
-        <f>AE6/$E6</f>
+      <c r="AG6" s="11">
+        <f>AF6/$E6</f>
         <v>0.91289600283769701</v>
       </c>
-      <c r="AG6" s="12">
+      <c r="AH6" s="12">
         <v>40042</v>
       </c>
-      <c r="AH6" s="11">
-        <f>AG6/$E6</f>
+      <c r="AI6" s="11">
+        <f>AH6/$E6</f>
         <v>0.887711441683109</v>
       </c>
-      <c r="AI6" s="12">
+      <c r="AJ6" s="12">
         <v>40104</v>
       </c>
-      <c r="AJ6" s="11">
-        <f>AI6/$E6</f>
+      <c r="AK6" s="11">
+        <f>AJ6/$E6</f>
         <v>0.88908595118274325</v>
       </c>
-      <c r="AK6" s="12">
+      <c r="AL6" s="12">
         <v>39986</v>
       </c>
-      <c r="AL6" s="13">
-        <f>AK6/$E6</f>
+      <c r="AM6" s="13">
+        <f>AL6/$E6</f>
         <v>0.88646994923182654</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>31032</v>
       </c>
-      <c r="AN6" s="1">
-        <f>AM6/$E6</f>
+      <c r="AO6" s="1">
+        <f>AN6/$E6</f>
         <v>0.68796417407497723</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>31507</v>
       </c>
-      <c r="AP6" s="1">
-        <f>AO6/$E6</f>
+      <c r="AQ6" s="1">
+        <f>AP6/$E6</f>
         <v>0.69849469040281997</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>30882</v>
       </c>
-      <c r="AR6" s="1">
-        <f>AQ6/$E6</f>
+      <c r="AS6" s="1">
+        <f>AR6/$E6</f>
         <v>0.68463874786618484</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>31010</v>
       </c>
-      <c r="AT6" s="1">
-        <f>AS6/$E6</f>
+      <c r="AU6" s="1">
+        <f>AT6/$E6</f>
         <v>0.68747644489768767</v>
       </c>
     </row>
-    <row r="7" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1</v>
       </c>
@@ -3985,146 +4319,147 @@
       <c r="F7" s="2">
         <v>45051</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G40" si="3">F7/$E7</f>
+      <c r="G7" s="31">
+        <f t="shared" ref="G7:G42" si="3">F7/$E7</f>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="3"/>
+      <c r="I7" s="10">
         <v>44910</v>
       </c>
-      <c r="I7" s="11">
-        <f t="shared" ref="I7:I40" si="4">H7/$E7</f>
+      <c r="J7" s="11">
+        <f t="shared" ref="J7:J42" si="4">I7/$E7</f>
         <v>0.99554432400079806</v>
       </c>
-      <c r="J7" s="12">
+      <c r="K7" s="12">
         <v>44904</v>
       </c>
-      <c r="K7" s="11">
-        <f t="shared" ref="K7:M40" si="5">J7/$E7</f>
+      <c r="L7" s="11">
+        <f t="shared" ref="L7:N42" si="5">K7/$E7</f>
         <v>0.99541131874709055</v>
       </c>
-      <c r="L7" s="12">
+      <c r="M7" s="12">
         <v>44909</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <f t="shared" si="5"/>
         <v>0.9955221564585135</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="18">
         <v>44913</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" ref="O7:Q7" si="6">N7/$E7</f>
+      <c r="P7" s="13">
+        <f t="shared" ref="P7:R7" si="6">O7/$E7</f>
         <v>0.99561082662765177</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>44895</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <f t="shared" si="6"/>
         <v>0.99521181086652921</v>
       </c>
-      <c r="R7" s="5">
+      <c r="S7" s="5">
         <v>44920</v>
       </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7:U7" si="7">R7/$E7</f>
+      <c r="T7" s="1">
+        <f t="shared" ref="T7:V7" si="7">S7/$E7</f>
         <v>0.99576599942364385</v>
       </c>
-      <c r="T7" s="5">
+      <c r="U7" s="5">
         <v>44898</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <f t="shared" si="7"/>
         <v>0.99527831349338303</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>44895</v>
       </c>
-      <c r="W7" s="1">
-        <f t="shared" ref="W7" si="8">V7/$E7</f>
+      <c r="X7" s="1">
+        <f t="shared" ref="X7" si="8">W7/$E7</f>
         <v>0.99521181086652921</v>
       </c>
-      <c r="X7" s="24">
+      <c r="Y7" s="24">
         <v>43518</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Z7" s="25">
         <f t="shared" si="0"/>
         <v>0.96468710514065303</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AA7" s="6">
         <v>44904</v>
       </c>
-      <c r="AA7" s="25">
+      <c r="AB7" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>44920</v>
       </c>
-      <c r="AC7" s="25">
+      <c r="AD7" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="10">
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="10">
         <v>38738</v>
       </c>
-      <c r="AF7" s="11">
-        <f t="shared" ref="AF7:AF40" si="9">AE7/$E7</f>
+      <c r="AG7" s="11">
+        <f t="shared" ref="AG7:AG42" si="9">AF7/$E7</f>
         <v>0.85872625302032768</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AH7" s="12">
         <v>38598</v>
       </c>
-      <c r="AH7" s="11">
-        <f t="shared" ref="AH7:AH40" si="10">AG7/$E7</f>
+      <c r="AI7" s="11">
+        <f t="shared" ref="AI7:AI42" si="10">AH7/$E7</f>
         <v>0.8556227971004855</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AJ7" s="12">
         <v>37962</v>
       </c>
-      <c r="AJ7" s="11">
-        <f t="shared" ref="AJ7:AJ40" si="11">AI7/$E7</f>
+      <c r="AK7" s="11">
+        <f t="shared" ref="AK7:AK42" si="11">AJ7/$E7</f>
         <v>0.84152424020748817</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AL7" s="12">
         <v>38390</v>
       </c>
-      <c r="AL7" s="13">
-        <f t="shared" ref="AL7:AL40" si="12">AK7/$E7</f>
+      <c r="AM7" s="13">
+        <f t="shared" ref="AM7:AM42" si="12">AL7/$E7</f>
         <v>0.85101194830529137</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>32931</v>
       </c>
-      <c r="AN7" s="1">
-        <f t="shared" ref="AN7:AP7" si="13">AM7/$E7</f>
+      <c r="AO7" s="1">
+        <f t="shared" ref="AO7:AQ7" si="13">AN7/$E7</f>
         <v>0.72999933497373148</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>32760</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <f t="shared" si="13"/>
         <v>0.72620868524306714</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>33179</v>
       </c>
-      <c r="AR7" s="1">
-        <f t="shared" ref="AR7:AT7" si="14">AQ7/$E7</f>
+      <c r="AS7" s="1">
+        <f t="shared" ref="AS7:AU7" si="14">AR7/$E7</f>
         <v>0.735496885460309</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>33294</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <f t="shared" si="14"/>
         <v>0.73804615282303654</v>
       </c>
     </row>
-    <row r="8" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>2</v>
       </c>
@@ -4137,146 +4472,147 @@
       <c r="F8" s="2">
         <v>45051</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="3"/>
+      <c r="I8" s="10">
         <v>44995</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="11">
         <f t="shared" si="4"/>
         <v>0.99745067612502769</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>44987</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <f t="shared" si="5"/>
         <v>0.99727333185546441</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>45002</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <f t="shared" si="5"/>
         <v>0.99760585236089561</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="18">
         <v>45001</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" ref="O8:Q8" si="15">N8/$E8</f>
+      <c r="P8" s="13">
+        <f t="shared" ref="P8:R8" si="15">O8/$E8</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>44985</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <f t="shared" si="15"/>
         <v>0.99722899578807356</v>
       </c>
-      <c r="R8" s="5">
+      <c r="S8" s="5">
         <v>45003</v>
       </c>
-      <c r="S8" s="1">
-        <f t="shared" ref="S8:U8" si="16">R8/$E8</f>
+      <c r="T8" s="1">
+        <f t="shared" ref="T8:V8" si="16">S8/$E8</f>
         <v>0.99762802039459098</v>
       </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
         <v>44973</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <f t="shared" si="16"/>
         <v>0.99696297938372869</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>45001</v>
       </c>
-      <c r="W8" s="1">
-        <f t="shared" ref="W8" si="17">V8/$E8</f>
+      <c r="X8" s="1">
+        <f t="shared" ref="X8" si="17">W8/$E8</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="X8" s="24">
+      <c r="Y8" s="24">
         <v>45064</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Z8" s="25">
         <f t="shared" si="0"/>
         <v>0.99898027045001103</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AA8" s="6">
         <v>44904</v>
       </c>
-      <c r="AA8" s="25">
+      <c r="AB8" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>44920</v>
       </c>
-      <c r="AC8" s="25">
+      <c r="AD8" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="10">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="10">
         <v>41442</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AG8" s="11">
         <f t="shared" si="9"/>
         <v>0.91868765240523165</v>
       </c>
-      <c r="AG8" s="12">
+      <c r="AH8" s="12">
         <v>40380</v>
       </c>
-      <c r="AH8" s="11">
+      <c r="AI8" s="11">
         <f t="shared" si="10"/>
         <v>0.89514520062070491</v>
       </c>
-      <c r="AI8" s="12">
+      <c r="AJ8" s="12">
         <v>40229</v>
       </c>
-      <c r="AJ8" s="11">
+      <c r="AK8" s="11">
         <f t="shared" si="11"/>
         <v>0.89179782753269787</v>
       </c>
-      <c r="AK8" s="12">
+      <c r="AL8" s="12">
         <v>40119</v>
       </c>
-      <c r="AL8" s="13">
+      <c r="AM8" s="13">
         <f t="shared" si="12"/>
         <v>0.88935934382620263</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>31241</v>
       </c>
-      <c r="AN8" s="1">
-        <f t="shared" ref="AN8:AP8" si="18">AM8/$E8</f>
+      <c r="AO8" s="1">
+        <f t="shared" ref="AO8:AQ8" si="18">AN8/$E8</f>
         <v>0.69255154067834179</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>30754</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <f t="shared" si="18"/>
         <v>0.6817557082686766</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>30896</v>
       </c>
-      <c r="AR8" s="1">
-        <f t="shared" ref="AR8:AT8" si="19">AQ8/$E8</f>
+      <c r="AS8" s="1">
+        <f t="shared" ref="AS8:AU8" si="19">AR8/$E8</f>
         <v>0.68490356905342498</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>31261</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <f t="shared" si="19"/>
         <v>0.69299490135225006</v>
       </c>
     </row>
-    <row r="9" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>3</v>
       </c>
@@ -4289,146 +4625,147 @@
       <c r="F9" s="2">
         <v>45051</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="3"/>
+      <c r="I9" s="10">
         <v>44918</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <f t="shared" si="4"/>
         <v>0.99572166433907472</v>
       </c>
-      <c r="J9" s="12">
+      <c r="K9" s="12">
         <v>44901</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <f t="shared" si="5"/>
         <v>0.99534481612023673</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>44922</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <f t="shared" si="5"/>
         <v>0.9958103345082131</v>
       </c>
-      <c r="N9" s="18">
+      <c r="O9" s="18">
         <v>44935</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" ref="O9:Q9" si="20">N9/$E9</f>
+      <c r="P9" s="13">
+        <f t="shared" ref="P9:R9" si="20">O9/$E9</f>
         <v>0.99609851255791271</v>
       </c>
-      <c r="P9" s="5">
+      <c r="Q9" s="5">
         <v>44928</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <f t="shared" si="20"/>
         <v>0.99594333976192062</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>44931</v>
       </c>
-      <c r="S9" s="1">
-        <f t="shared" ref="S9:U9" si="21">R9/$E9</f>
+      <c r="T9" s="1">
+        <f t="shared" ref="T9:V9" si="21">S9/$E9</f>
         <v>0.99600984238877432</v>
       </c>
-      <c r="T9" s="5">
+      <c r="U9" s="5">
         <v>44900</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <f t="shared" si="21"/>
         <v>0.99532264857795216</v>
       </c>
-      <c r="V9" s="5">
+      <c r="W9" s="5">
         <v>44928</v>
       </c>
-      <c r="W9" s="1">
-        <f t="shared" ref="W9" si="22">V9/$E9</f>
+      <c r="X9" s="1">
+        <f t="shared" ref="X9" si="22">W9/$E9</f>
         <v>0.99594333976192062</v>
       </c>
-      <c r="X9" s="24">
+      <c r="Y9" s="24">
         <v>43489</v>
       </c>
-      <c r="Y9" s="25">
+      <c r="Z9" s="25">
         <f t="shared" si="0"/>
         <v>0.96404424641440001</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AA9" s="6">
         <v>44904</v>
       </c>
-      <c r="AA9" s="25">
+      <c r="AB9" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>44920</v>
       </c>
-      <c r="AC9" s="25">
+      <c r="AD9" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="10">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="10">
         <v>41887</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AG9" s="11">
         <f t="shared" si="9"/>
         <v>0.92853184367449182</v>
       </c>
-      <c r="AG9" s="12">
+      <c r="AH9" s="12">
         <v>41006</v>
       </c>
-      <c r="AH9" s="11">
+      <c r="AI9" s="11">
         <f t="shared" si="10"/>
         <v>0.90900223892177079</v>
       </c>
-      <c r="AI9" s="12">
+      <c r="AJ9" s="12">
         <v>40776</v>
       </c>
-      <c r="AJ9" s="11">
+      <c r="AK9" s="11">
         <f t="shared" si="11"/>
         <v>0.90390370419631572</v>
       </c>
-      <c r="AK9" s="12">
+      <c r="AL9" s="12">
         <v>40577</v>
       </c>
-      <c r="AL9" s="13">
+      <c r="AM9" s="13">
         <f t="shared" si="12"/>
         <v>0.89949236328168292</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>29983</v>
       </c>
-      <c r="AN9" s="1">
-        <f t="shared" ref="AN9:AP9" si="23">AM9/$E9</f>
+      <c r="AO9" s="1">
+        <f t="shared" ref="AO9:AQ9" si="23">AN9/$E9</f>
         <v>0.66464942031876928</v>
       </c>
-      <c r="AO9">
+      <c r="AP9">
         <v>30059</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <f t="shared" si="23"/>
         <v>0.66633415353239789</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>30174</v>
       </c>
-      <c r="AR9" s="1">
-        <f t="shared" ref="AR9:AT9" si="24">AQ9/$E9</f>
+      <c r="AS9" s="1">
+        <f t="shared" ref="AS9:AU9" si="24">AR9/$E9</f>
         <v>0.66888342089512531</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>29797</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <f t="shared" si="24"/>
         <v>0.66052625745383609</v>
       </c>
     </row>
-    <row r="10" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>4</v>
       </c>
@@ -4441,146 +4778,147 @@
       <c r="F10" s="2">
         <v>45051</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="3"/>
+      <c r="I10" s="10">
         <v>44996</v>
       </c>
-      <c r="I10" s="11">
+      <c r="J10" s="11">
         <f t="shared" si="4"/>
         <v>0.99745073263727246</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>44989</v>
       </c>
-      <c r="K10" s="11">
+      <c r="L10" s="11">
         <f t="shared" si="5"/>
         <v>0.99729555984128038</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>45002</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <f t="shared" si="5"/>
         <v>0.99758373789097998</v>
       </c>
-      <c r="N10" s="18">
+      <c r="O10" s="18">
         <v>45001</v>
       </c>
-      <c r="O10" s="13">
-        <f t="shared" ref="O10:Q10" si="25">N10/$E10</f>
+      <c r="P10" s="13">
+        <f t="shared" ref="P10:R10" si="25">O10/$E10</f>
         <v>0.99756157034869541</v>
       </c>
-      <c r="P10" s="5">
+      <c r="Q10" s="5">
         <v>44986</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <f t="shared" si="25"/>
         <v>0.99722905721442667</v>
       </c>
-      <c r="R10" s="5">
+      <c r="S10" s="5">
         <v>45001</v>
       </c>
-      <c r="S10" s="1">
-        <f t="shared" ref="S10:U10" si="26">R10/$E10</f>
+      <c r="T10" s="1">
+        <f t="shared" ref="T10:V10" si="26">S10/$E10</f>
         <v>0.99756157034869541</v>
       </c>
-      <c r="T10" s="5">
+      <c r="U10" s="5">
         <v>44975</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <f t="shared" si="26"/>
         <v>0.9969852142492962</v>
       </c>
-      <c r="V10" s="5">
+      <c r="W10" s="5">
         <v>45002</v>
       </c>
-      <c r="W10" s="1">
-        <f t="shared" ref="W10" si="27">V10/$E10</f>
+      <c r="X10" s="1">
+        <f t="shared" ref="X10" si="27">W10/$E10</f>
         <v>0.99758373789097998</v>
       </c>
-      <c r="X10" s="24">
+      <c r="Y10" s="24">
         <v>45070</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Z10" s="25">
         <f t="shared" si="0"/>
         <v>0.99909113076633194</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AA10" s="6">
         <v>44904</v>
       </c>
-      <c r="AA10" s="25">
+      <c r="AB10" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>44920</v>
       </c>
-      <c r="AC10" s="25">
+      <c r="AD10" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="10">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="10">
         <v>40011</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AG10" s="11">
         <f t="shared" si="9"/>
         <v>0.88694553434860679</v>
       </c>
-      <c r="AG10" s="12">
+      <c r="AH10" s="12">
         <v>38911</v>
       </c>
-      <c r="AH10" s="11">
+      <c r="AI10" s="11">
         <f t="shared" si="10"/>
         <v>0.86256123783556116</v>
       </c>
-      <c r="AI10" s="12">
+      <c r="AJ10" s="12">
         <v>39544</v>
       </c>
-      <c r="AJ10" s="11">
+      <c r="AK10" s="11">
         <f t="shared" si="11"/>
         <v>0.87659329210170467</v>
       </c>
-      <c r="AK10" s="12">
+      <c r="AL10" s="12">
         <v>38847</v>
       </c>
-      <c r="AL10" s="13">
+      <c r="AM10" s="13">
         <f t="shared" si="12"/>
         <v>0.86114251512934759</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>30494</v>
       </c>
-      <c r="AN10" s="1">
-        <f t="shared" ref="AN10:AP10" si="28">AM10/$E10</f>
+      <c r="AO10" s="1">
+        <f t="shared" ref="AO10:AQ10" si="28">AN10/$E10</f>
         <v>0.67597703442619317</v>
       </c>
-      <c r="AO10">
+      <c r="AP10">
         <v>30548</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <f t="shared" si="28"/>
         <v>0.67717408170956084</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>30856</v>
       </c>
-      <c r="AR10" s="1">
-        <f t="shared" ref="AR10:AT10" si="29">AQ10/$E10</f>
+      <c r="AS10" s="1">
+        <f t="shared" ref="AS10:AU10" si="29">AR10/$E10</f>
         <v>0.68400168473321366</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>31068</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <f t="shared" si="29"/>
         <v>0.68870120369754606</v>
       </c>
     </row>
-    <row r="11" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>5</v>
       </c>
@@ -4593,146 +4931,147 @@
       <c r="F11" s="2">
         <v>45051</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="3"/>
+      <c r="I11" s="10">
         <v>44915</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="11">
         <f t="shared" si="4"/>
         <v>0.99565516171222102</v>
       </c>
-      <c r="J11" s="12">
+      <c r="K11" s="12">
         <v>44893</v>
       </c>
-      <c r="K11" s="11">
+      <c r="L11" s="11">
         <f t="shared" si="5"/>
         <v>0.99516747578196008</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>44910</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <f t="shared" si="5"/>
         <v>0.99554432400079806</v>
       </c>
-      <c r="N11" s="18">
+      <c r="O11" s="18">
         <v>44917</v>
       </c>
-      <c r="O11" s="13">
-        <f t="shared" ref="O11:Q11" si="30">N11/$E11</f>
+      <c r="P11" s="13">
+        <f t="shared" ref="P11:R11" si="30">O11/$E11</f>
         <v>0.99569949679679015</v>
       </c>
-      <c r="P11" s="5">
+      <c r="Q11" s="5">
         <v>44899</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <f t="shared" si="30"/>
         <v>0.99530048103566759</v>
       </c>
-      <c r="R11" s="5">
+      <c r="S11" s="5">
         <v>44920</v>
       </c>
-      <c r="S11" s="1">
-        <f t="shared" ref="S11:U11" si="31">R11/$E11</f>
+      <c r="T11" s="1">
+        <f t="shared" ref="T11:V11" si="31">S11/$E11</f>
         <v>0.99576599942364385</v>
       </c>
-      <c r="T11" s="5">
+      <c r="U11" s="5">
         <v>44910</v>
       </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <f t="shared" si="31"/>
         <v>0.99554432400079806</v>
       </c>
-      <c r="V11" s="5">
+      <c r="W11" s="5">
         <v>44916</v>
       </c>
-      <c r="W11" s="1">
-        <f t="shared" ref="W11" si="32">V11/$E11</f>
+      <c r="X11" s="1">
+        <f t="shared" ref="X11" si="32">W11/$E11</f>
         <v>0.99567732925450558</v>
       </c>
-      <c r="X11" s="24">
+      <c r="Y11" s="24">
         <v>43488</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Z11" s="25">
         <f t="shared" si="0"/>
         <v>0.96402207887211544</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AA11" s="6">
         <v>44904</v>
       </c>
-      <c r="AA11" s="25">
+      <c r="AB11" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>44920</v>
       </c>
-      <c r="AC11" s="25">
+      <c r="AD11" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="10">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="10">
         <v>37954</v>
       </c>
-      <c r="AF11" s="11">
+      <c r="AG11" s="11">
         <f t="shared" si="9"/>
         <v>0.84134689986921152</v>
       </c>
-      <c r="AG11" s="12">
+      <c r="AH11" s="12">
         <v>37060</v>
       </c>
-      <c r="AH11" s="11">
+      <c r="AI11" s="11">
         <f t="shared" si="10"/>
         <v>0.82152911706679077</v>
       </c>
-      <c r="AI11" s="12">
+      <c r="AJ11" s="12">
         <v>37413</v>
       </c>
-      <c r="AJ11" s="11">
+      <c r="AK11" s="11">
         <f t="shared" si="11"/>
         <v>0.82935425949325003</v>
       </c>
-      <c r="AK11" s="12">
+      <c r="AL11" s="12">
         <v>37426</v>
       </c>
-      <c r="AL11" s="13">
+      <c r="AM11" s="13">
         <f t="shared" si="12"/>
         <v>0.82964243754294964</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>29392</v>
       </c>
-      <c r="AN11" s="1">
-        <f t="shared" ref="AN11:AP11" si="33">AM11/$E11</f>
+      <c r="AO11" s="1">
+        <f t="shared" ref="AO11:AQ11" si="33">AN11/$E11</f>
         <v>0.6515484028285784</v>
       </c>
-      <c r="AO11">
+      <c r="AP11">
         <v>28820</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <f t="shared" si="33"/>
         <v>0.63886856864179464</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>28635</v>
       </c>
-      <c r="AR11" s="1">
-        <f t="shared" ref="AR11:AT11" si="34">AQ11/$E11</f>
+      <c r="AS11" s="1">
+        <f t="shared" ref="AS11:AU11" si="34">AR11/$E11</f>
         <v>0.63476757331914613</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>28670</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AU11" s="1">
         <f t="shared" si="34"/>
         <v>0.63554343729910667</v>
       </c>
     </row>
-    <row r="12" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>6</v>
       </c>
@@ -4745,146 +5084,147 @@
       <c r="F12" s="2">
         <v>45051</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="3"/>
+      <c r="I12" s="10">
         <v>44996</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="11">
         <f t="shared" si="4"/>
         <v>0.99749495666053334</v>
       </c>
-      <c r="J12" s="12">
+      <c r="K12" s="12">
         <v>44986</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <f t="shared" si="5"/>
         <v>0.99727327140925315</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>45001</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <f t="shared" si="5"/>
         <v>0.99760579928617354</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O12" s="18">
         <v>45000</v>
       </c>
-      <c r="O12" s="13">
-        <f t="shared" ref="O12:Q12" si="35">N12/$E12</f>
+      <c r="P12" s="13">
+        <f t="shared" ref="P12:R12" si="35">O12/$E12</f>
         <v>0.9975836307610455</v>
       </c>
-      <c r="P12" s="5">
+      <c r="Q12" s="5">
         <v>44987</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <f t="shared" si="35"/>
         <v>0.99729543993438119</v>
       </c>
-      <c r="R12" s="5">
+      <c r="S12" s="5">
         <v>45002</v>
       </c>
-      <c r="S12" s="1">
-        <f t="shared" ref="S12:U12" si="36">R12/$E12</f>
+      <c r="T12" s="1">
+        <f t="shared" ref="T12:V12" si="36">S12/$E12</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="T12" s="5">
+      <c r="U12" s="5">
         <v>44975</v>
       </c>
-      <c r="U12" s="1">
+      <c r="V12" s="1">
         <f t="shared" si="36"/>
         <v>0.99702941763284492</v>
       </c>
-      <c r="V12" s="5">
+      <c r="W12" s="5">
         <v>45002</v>
       </c>
-      <c r="W12" s="1">
-        <f t="shared" ref="W12" si="37">V12/$E12</f>
+      <c r="X12" s="1">
+        <f t="shared" ref="X12" si="37">W12/$E12</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="X12" s="24">
+      <c r="Y12" s="24">
         <v>45080</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Z12" s="25">
         <f t="shared" si="0"/>
         <v>0.99935711277128736</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AA12" s="6">
         <v>44904</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AB12" s="25">
         <f t="shared" si="1"/>
         <v>0.99545545234875521</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>44920</v>
       </c>
-      <c r="AC12" s="25">
+      <c r="AD12" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="10">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="10">
         <v>38653</v>
       </c>
-      <c r="AF12" s="11">
+      <c r="AG12" s="11">
         <f t="shared" si="9"/>
         <v>0.856880001773482</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AH12" s="12">
         <v>37049</v>
       </c>
-      <c r="AH12" s="11">
+      <c r="AI12" s="11">
         <f t="shared" si="10"/>
         <v>0.82132168746813272</v>
       </c>
-      <c r="AI12" s="12">
+      <c r="AJ12" s="12">
         <v>37054</v>
       </c>
-      <c r="AJ12" s="11">
+      <c r="AK12" s="11">
         <f t="shared" si="11"/>
         <v>0.82143253009377282</v>
       </c>
-      <c r="AK12" s="12">
+      <c r="AL12" s="12">
         <v>37317</v>
       </c>
-      <c r="AL12" s="13">
+      <c r="AM12" s="13">
         <f t="shared" si="12"/>
         <v>0.827262852202443</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>30006</v>
       </c>
-      <c r="AN12" s="1">
-        <f t="shared" ref="AN12:AP12" si="38">AM12/$E12</f>
+      <c r="AO12" s="1">
+        <f t="shared" ref="AO12:AQ12" si="38">AN12/$E12</f>
         <v>0.66518876499146506</v>
       </c>
-      <c r="AO12">
+      <c r="AP12">
         <v>30011</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <f t="shared" si="38"/>
         <v>0.66529960761710527</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>30275</v>
       </c>
-      <c r="AR12" s="1">
-        <f t="shared" ref="AR12:AT12" si="39">AQ12/$E12</f>
+      <c r="AS12" s="1">
+        <f t="shared" ref="AS12:AU12" si="39">AR12/$E12</f>
         <v>0.67115209825090338</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>29956</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AU12" s="1">
         <f t="shared" si="39"/>
         <v>0.664080338735064</v>
       </c>
     </row>
-    <row r="13" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>7</v>
       </c>
@@ -4897,146 +5237,147 @@
       <c r="F13" s="2">
         <v>45051</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="3"/>
+      <c r="I13" s="10">
         <v>44919</v>
       </c>
-      <c r="I13" s="11">
+      <c r="J13" s="11">
         <f t="shared" si="4"/>
         <v>0.99574383188135929</v>
       </c>
-      <c r="J13" s="12">
+      <c r="K13" s="12">
         <v>44908</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <f t="shared" si="5"/>
         <v>0.99549998891622882</v>
       </c>
-      <c r="L13" s="12">
+      <c r="M13" s="12">
         <v>44906</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <f t="shared" si="5"/>
         <v>0.99545565383165968</v>
       </c>
-      <c r="N13" s="18">
+      <c r="O13" s="18">
         <v>44907</v>
       </c>
-      <c r="O13" s="13">
-        <f t="shared" ref="O13:Q13" si="40">N13/$E13</f>
+      <c r="P13" s="13">
+        <f t="shared" ref="P13:R13" si="40">O13/$E13</f>
         <v>0.99547782137394425</v>
       </c>
-      <c r="P13" s="5">
+      <c r="Q13" s="5">
         <v>44908</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <f t="shared" si="40"/>
         <v>0.99549998891622882</v>
       </c>
-      <c r="R13" s="5">
+      <c r="S13" s="5">
         <v>44912</v>
       </c>
-      <c r="S13" s="1">
-        <f t="shared" ref="S13:U13" si="41">R13/$E13</f>
+      <c r="T13" s="1">
+        <f t="shared" ref="T13:V13" si="41">S13/$E13</f>
         <v>0.9955886590853672</v>
       </c>
-      <c r="T13" s="5">
+      <c r="U13" s="5">
         <v>44880</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="1">
         <f t="shared" si="41"/>
         <v>0.99487929773226047</v>
       </c>
-      <c r="V13" s="5">
+      <c r="W13" s="5">
         <v>44929</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" ref="W13" si="42">V13/$E13</f>
+      <c r="X13" s="1">
+        <f t="shared" ref="X13" si="42">W13/$E13</f>
         <v>0.99596550730420519</v>
       </c>
-      <c r="X13" s="24">
+      <c r="Y13" s="24">
         <v>43482</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Z13" s="25">
         <f t="shared" si="0"/>
         <v>0.96388907361840792</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AA13" s="6">
         <v>44904</v>
       </c>
-      <c r="AA13" s="25">
+      <c r="AB13" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>44920</v>
       </c>
-      <c r="AC13" s="25">
+      <c r="AD13" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="10">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="10">
         <v>39273</v>
       </c>
-      <c r="AF13" s="11">
+      <c r="AG13" s="11">
         <f t="shared" si="9"/>
         <v>0.87058588814258164</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AH13" s="12">
         <v>38167</v>
       </c>
-      <c r="AH13" s="11">
+      <c r="AI13" s="11">
         <f t="shared" si="10"/>
         <v>0.84606858637582849</v>
       </c>
-      <c r="AI13" s="12">
+      <c r="AJ13" s="12">
         <v>38391</v>
       </c>
-      <c r="AJ13" s="11">
+      <c r="AK13" s="11">
         <f t="shared" si="11"/>
         <v>0.85103411584757593</v>
       </c>
-      <c r="AK13" s="12">
+      <c r="AL13" s="12">
         <v>38145</v>
       </c>
-      <c r="AL13" s="13">
+      <c r="AM13" s="13">
         <f t="shared" si="12"/>
         <v>0.84558090044556755</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>27462</v>
       </c>
-      <c r="AN13" s="1">
-        <f t="shared" ref="AN13:AP13" si="43">AM13/$E13</f>
+      <c r="AO13" s="1">
+        <f t="shared" ref="AO13:AQ13" si="43">AN13/$E13</f>
         <v>0.6087650462193257</v>
       </c>
-      <c r="AO13">
+      <c r="AP13">
         <v>27381</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <f t="shared" si="43"/>
         <v>0.60696947529427414</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>27585</v>
       </c>
-      <c r="AR13" s="1">
-        <f t="shared" ref="AR13:AT13" si="44">AQ13/$E13</f>
+      <c r="AS13" s="1">
+        <f t="shared" ref="AS13:AU13" si="44">AR13/$E13</f>
         <v>0.61149165392032989</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>27901</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AU13" s="1">
         <f t="shared" si="44"/>
         <v>0.61849659728225936</v>
       </c>
     </row>
-    <row r="14" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>8</v>
       </c>
@@ -5049,146 +5390,147 @@
       <c r="F14" s="2">
         <v>45051</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="31">
         <f t="shared" si="3"/>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="3"/>
+      <c r="I14" s="10">
         <v>44993</v>
       </c>
-      <c r="I14" s="11">
+      <c r="J14" s="11">
         <f t="shared" si="4"/>
         <v>0.99747267608131773</v>
       </c>
-      <c r="J14" s="12">
+      <c r="K14" s="12">
         <v>44987</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="5"/>
         <v>0.99733965903296606</v>
       </c>
-      <c r="L14" s="12">
+      <c r="M14" s="12">
         <v>45003</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="5"/>
         <v>0.99769437116190396</v>
       </c>
-      <c r="N14" s="18">
+      <c r="O14" s="18">
         <v>44999</v>
       </c>
-      <c r="O14" s="13">
-        <f t="shared" ref="O14:Q14" si="45">N14/$E14</f>
+      <c r="P14" s="13">
+        <f t="shared" ref="P14:R14" si="45">O14/$E14</f>
         <v>0.9976056931296694</v>
       </c>
-      <c r="P14" s="5">
+      <c r="Q14" s="5">
         <v>44982</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <f t="shared" si="45"/>
         <v>0.99722881149267295</v>
       </c>
-      <c r="R14" s="5">
+      <c r="S14" s="5">
         <v>45002</v>
       </c>
-      <c r="S14" s="1">
-        <f t="shared" ref="S14:U14" si="46">R14/$E14</f>
+      <c r="T14" s="1">
+        <f t="shared" ref="T14:V14" si="46">S14/$E14</f>
         <v>0.99767220165384529</v>
       </c>
-      <c r="T14" s="5">
+      <c r="U14" s="5">
         <v>44970</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="1">
         <f t="shared" si="46"/>
         <v>0.99696277739596961</v>
       </c>
-      <c r="V14" s="5">
+      <c r="W14" s="5">
         <v>45003</v>
       </c>
-      <c r="W14" s="1">
-        <f t="shared" ref="W14" si="47">V14/$E14</f>
+      <c r="X14" s="1">
+        <f t="shared" ref="X14" si="47">W14/$E14</f>
         <v>0.99769437116190396</v>
       </c>
-      <c r="X14" s="24">
+      <c r="Y14" s="24">
         <v>45067</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Z14" s="25">
         <f t="shared" si="0"/>
         <v>0.99911321967765532</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AA14" s="6">
         <v>44904</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AB14" s="25">
         <f t="shared" si="1"/>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>44920</v>
       </c>
-      <c r="AC14" s="25">
+      <c r="AD14" s="25">
         <f t="shared" si="2"/>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="10">
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="10">
         <v>38858</v>
       </c>
-      <c r="AF14" s="11">
+      <c r="AG14" s="11">
         <f t="shared" si="9"/>
         <v>0.86146274414170754</v>
       </c>
-      <c r="AG14" s="12">
+      <c r="AH14" s="12">
         <v>38045</v>
       </c>
-      <c r="AH14" s="11">
+      <c r="AI14" s="11">
         <f t="shared" si="10"/>
         <v>0.84343893409005255</v>
       </c>
-      <c r="AI14" s="12">
+      <c r="AJ14" s="12">
         <v>38412</v>
       </c>
-      <c r="AJ14" s="11">
+      <c r="AK14" s="11">
         <f t="shared" si="11"/>
         <v>0.85157514354756469</v>
       </c>
-      <c r="AK14" s="12">
+      <c r="AL14" s="12">
         <v>37880</v>
       </c>
-      <c r="AL14" s="13">
+      <c r="AM14" s="13">
         <f t="shared" si="12"/>
         <v>0.83978096526038082</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>27535</v>
       </c>
-      <c r="AN14" s="1">
-        <f t="shared" ref="AN14:AP14" si="48">AM14/$E14</f>
+      <c r="AO14" s="1">
+        <f t="shared" ref="AO14:AQ14" si="48">AN14/$E14</f>
         <v>0.61043740439399652</v>
       </c>
-      <c r="AO14">
+      <c r="AP14">
         <v>27307</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AQ14" s="1">
         <f t="shared" si="48"/>
         <v>0.60538275655663198</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>27291</v>
       </c>
-      <c r="AR14" s="1">
-        <f t="shared" ref="AR14:AT14" si="49">AQ14/$E14</f>
+      <c r="AS14" s="1">
+        <f t="shared" ref="AS14:AU14" si="49">AR14/$E14</f>
         <v>0.6050280444276942</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>27347</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AU14" s="1">
         <f t="shared" si="49"/>
         <v>0.60626953687897667</v>
       </c>
     </row>
-    <row r="15" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>9</v>
       </c>
@@ -5201,146 +5543,147 @@
       <c r="F15" s="2">
         <v>45051</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="3"/>
+      <c r="I15" s="10">
         <v>44995</v>
       </c>
-      <c r="I15" s="11">
+      <c r="J15" s="11">
         <f t="shared" si="4"/>
         <v>0.99745067612502769</v>
       </c>
-      <c r="J15" s="12">
+      <c r="K15" s="12">
         <v>44986</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <f t="shared" si="5"/>
         <v>0.99725116382176904</v>
       </c>
-      <c r="L15" s="12">
+      <c r="M15" s="12">
         <v>45000</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="5"/>
         <v>0.99756151629350476</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <v>45001</v>
       </c>
-      <c r="O15" s="13">
-        <f t="shared" ref="O15:Q15" si="50">N15/$E15</f>
+      <c r="P15" s="13">
+        <f t="shared" ref="P15:R15" si="50">O15/$E15</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="P15" s="5">
+      <c r="Q15" s="5">
         <v>44986</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <f t="shared" si="50"/>
         <v>0.99725116382176904</v>
       </c>
-      <c r="R15" s="5">
+      <c r="S15" s="5">
         <v>45001</v>
       </c>
-      <c r="S15" s="1">
-        <f t="shared" ref="S15:U15" si="51">R15/$E15</f>
+      <c r="T15" s="1">
+        <f t="shared" ref="T15:V15" si="51">S15/$E15</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="T15" s="5">
+      <c r="U15" s="5">
         <v>44973</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="1">
         <f t="shared" si="51"/>
         <v>0.99696297938372869</v>
       </c>
-      <c r="V15" s="5">
+      <c r="W15" s="5">
         <v>45001</v>
       </c>
-      <c r="W15" s="1">
-        <f t="shared" ref="W15" si="52">V15/$E15</f>
+      <c r="X15" s="1">
+        <f t="shared" ref="X15" si="52">W15/$E15</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="X15" s="24">
+      <c r="Y15" s="24">
         <v>45084</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Z15" s="25">
         <f t="shared" si="0"/>
         <v>0.9994236311239193</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AA15" s="6">
         <v>44904</v>
       </c>
-      <c r="AA15" s="25">
+      <c r="AB15" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>44920</v>
       </c>
-      <c r="AC15" s="25">
+      <c r="AD15" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="10">
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="10">
         <v>41574</v>
       </c>
-      <c r="AF15" s="11">
+      <c r="AG15" s="11">
         <f t="shared" si="9"/>
         <v>0.92161383285302589</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AH15" s="12">
         <v>40486</v>
       </c>
-      <c r="AH15" s="11">
+      <c r="AI15" s="11">
         <f t="shared" si="10"/>
         <v>0.89749501219241856</v>
       </c>
-      <c r="AI15" s="12">
+      <c r="AJ15" s="12">
         <v>40345</v>
       </c>
-      <c r="AJ15" s="11">
+      <c r="AK15" s="11">
         <f t="shared" si="11"/>
         <v>0.89436931944136555</v>
       </c>
-      <c r="AK15" s="12">
+      <c r="AL15" s="12">
         <v>40342</v>
       </c>
-      <c r="AL15" s="13">
+      <c r="AM15" s="13">
         <f t="shared" si="12"/>
         <v>0.89430281534027933</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>27488</v>
       </c>
-      <c r="AN15" s="1">
-        <f t="shared" ref="AN15:AP15" si="53">AM15/$E15</f>
+      <c r="AO15" s="1">
+        <f t="shared" ref="AO15:AQ15" si="53">AN15/$E15</f>
         <v>0.60935491021946353</v>
       </c>
-      <c r="AO15">
+      <c r="AP15">
         <v>26963</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <f t="shared" si="53"/>
         <v>0.59771669252937265</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>26816</v>
       </c>
-      <c r="AR15" s="1">
-        <f t="shared" ref="AR15:AT15" si="54">AQ15/$E15</f>
+      <c r="AS15" s="1">
+        <f t="shared" ref="AS15:AU15" si="54">AR15/$E15</f>
         <v>0.5944579915761472</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>26540</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AU15" s="1">
         <f t="shared" si="54"/>
         <v>0.58833961427621373</v>
       </c>
     </row>
-    <row r="16" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>10</v>
       </c>
@@ -5353,146 +5696,147 @@
       <c r="F16" s="2">
         <v>45051</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="3"/>
+      <c r="I16" s="10">
         <v>44991</v>
       </c>
-      <c r="I16" s="11">
+      <c r="J16" s="11">
         <f t="shared" si="4"/>
         <v>0.99733989492584962</v>
       </c>
-      <c r="J16" s="12">
+      <c r="K16" s="12">
         <v>44979</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="5"/>
         <v>0.99707388441843448</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>44998</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="5"/>
         <v>0.99749506772184171</v>
       </c>
-      <c r="N16" s="18">
+      <c r="O16" s="18">
         <v>44998</v>
       </c>
-      <c r="O16" s="13">
-        <f t="shared" ref="O16:Q16" si="55">N16/$E16</f>
+      <c r="P16" s="13">
+        <f t="shared" ref="P16:R16" si="55">O16/$E16</f>
         <v>0.99749506772184171</v>
       </c>
-      <c r="P16" s="5">
+      <c r="Q16" s="5">
         <v>44978</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <f t="shared" si="55"/>
         <v>0.99705171687614991</v>
       </c>
-      <c r="R16" s="5">
+      <c r="S16" s="5">
         <v>44997</v>
       </c>
-      <c r="S16" s="1">
-        <f t="shared" ref="S16:U16" si="56">R16/$E16</f>
+      <c r="T16" s="1">
+        <f t="shared" ref="T16:V16" si="56">S16/$E16</f>
         <v>0.99747290017955714</v>
       </c>
-      <c r="T16" s="5">
+      <c r="U16" s="5">
         <v>44973</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="1">
         <f t="shared" si="56"/>
         <v>0.99694087916472696</v>
       </c>
-      <c r="V16" s="5">
+      <c r="W16" s="5">
         <v>44996</v>
       </c>
-      <c r="W16" s="1">
-        <f t="shared" ref="W16" si="57">V16/$E16</f>
+      <c r="X16" s="1">
+        <f t="shared" ref="X16" si="57">W16/$E16</f>
         <v>0.99745073263727246</v>
       </c>
-      <c r="X16" s="24">
+      <c r="Y16" s="24">
         <v>45082</v>
       </c>
-      <c r="Y16" s="25">
+      <c r="Z16" s="25">
         <f t="shared" si="0"/>
         <v>0.99935714127374697</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AA16" s="6">
         <v>44904</v>
       </c>
-      <c r="AA16" s="25">
+      <c r="AB16" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>44920</v>
       </c>
-      <c r="AC16" s="25">
+      <c r="AD16" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="10">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="10">
         <v>41078</v>
       </c>
-      <c r="AF16" s="11">
+      <c r="AG16" s="11">
         <f t="shared" si="9"/>
         <v>0.91059830196626101</v>
       </c>
-      <c r="AG16" s="12">
+      <c r="AH16" s="12">
         <v>40075</v>
       </c>
-      <c r="AH16" s="11">
+      <c r="AI16" s="11">
         <f t="shared" si="10"/>
         <v>0.88836425705482036</v>
       </c>
-      <c r="AI16" s="12">
+      <c r="AJ16" s="12">
         <v>39746</v>
       </c>
-      <c r="AJ16" s="11">
+      <c r="AK16" s="11">
         <f t="shared" si="11"/>
         <v>0.88107113564319128</v>
       </c>
-      <c r="AK16" s="12">
+      <c r="AL16" s="12">
         <v>40126</v>
       </c>
-      <c r="AL16" s="13">
+      <c r="AM16" s="13">
         <f t="shared" si="12"/>
         <v>0.88949480171133422</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>26190</v>
       </c>
-      <c r="AN16" s="1">
-        <f t="shared" ref="AN16:AP16" si="58">AM16/$E16</f>
+      <c r="AO16" s="1">
+        <f t="shared" ref="AO16:AQ16" si="58">AN16/$E16</f>
         <v>0.58056793243333116</v>
       </c>
-      <c r="AO16">
+      <c r="AP16">
         <v>26839</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AQ16" s="1">
         <f t="shared" si="58"/>
         <v>0.59495466737602798</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>27180</v>
       </c>
-      <c r="AR16" s="1">
-        <f t="shared" ref="AR16:AT16" si="59">AQ16/$E16</f>
+      <c r="AS16" s="1">
+        <f t="shared" ref="AS16:AU16" si="59">AR16/$E16</f>
         <v>0.60251379929507221</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>26494</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AU16" s="1">
         <f t="shared" si="59"/>
         <v>0.58730686528784559</v>
       </c>
     </row>
-    <row r="17" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>11</v>
       </c>
@@ -5505,146 +5849,147 @@
       <c r="F17" s="2">
         <v>45051</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="3"/>
+      <c r="I17" s="10">
         <v>44995</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <f t="shared" si="4"/>
         <v>0.9974727881354053</v>
       </c>
-      <c r="J17" s="12">
+      <c r="K17" s="12">
         <v>44983</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <f t="shared" si="5"/>
         <v>0.99720676583386902</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>44996</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <f t="shared" si="5"/>
         <v>0.99749495666053334</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="18">
         <v>44995</v>
       </c>
-      <c r="O17" s="13">
-        <f t="shared" ref="O17:Q17" si="60">N17/$E17</f>
+      <c r="P17" s="13">
+        <f t="shared" ref="P17:R17" si="60">O17/$E17</f>
         <v>0.9974727881354053</v>
       </c>
-      <c r="P17" s="5">
+      <c r="Q17" s="5">
         <v>44978</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <f t="shared" si="60"/>
         <v>0.99709592320822893</v>
       </c>
-      <c r="R17" s="5">
+      <c r="S17" s="5">
         <v>45002</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" ref="S17:U17" si="61">R17/$E17</f>
+      <c r="T17" s="1">
+        <f t="shared" ref="T17:V17" si="61">S17/$E17</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="T17" s="5">
+      <c r="U17" s="5">
         <v>44970</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="1">
         <f t="shared" si="61"/>
         <v>0.99691857500720482</v>
       </c>
-      <c r="V17" s="5">
+      <c r="W17" s="5">
         <v>45001</v>
       </c>
-      <c r="W17" s="1">
-        <f t="shared" ref="W17" si="62">V17/$E17</f>
+      <c r="X17" s="1">
+        <f t="shared" ref="X17" si="62">W17/$E17</f>
         <v>0.99760579928617354</v>
       </c>
-      <c r="X17" s="24">
+      <c r="Y17" s="24">
         <v>45088</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Z17" s="25">
         <f t="shared" si="0"/>
         <v>0.99953446097231147</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AA17" s="6">
         <v>44904</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="AB17" s="25">
         <f t="shared" si="1"/>
         <v>0.99545545234875521</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>44920</v>
       </c>
-      <c r="AC17" s="25">
+      <c r="AD17" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="10">
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="10">
         <v>40332</v>
       </c>
-      <c r="AF17" s="11">
+      <c r="AG17" s="11">
         <f t="shared" si="9"/>
         <v>0.89410095546343304</v>
       </c>
-      <c r="AG17" s="12">
+      <c r="AH17" s="12">
         <v>39448</v>
       </c>
-      <c r="AH17" s="11">
+      <c r="AI17" s="11">
         <f t="shared" si="10"/>
         <v>0.87450397925026047</v>
       </c>
-      <c r="AI17" s="12">
+      <c r="AJ17" s="12">
         <v>39313</v>
       </c>
-      <c r="AJ17" s="11">
+      <c r="AK17" s="11">
         <f t="shared" si="11"/>
         <v>0.87151122835797734</v>
       </c>
-      <c r="AK17" s="12">
+      <c r="AL17" s="12">
         <v>39707</v>
       </c>
-      <c r="AL17" s="13">
+      <c r="AM17" s="13">
         <f t="shared" si="12"/>
         <v>0.88024562725841848</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>25788</v>
       </c>
-      <c r="AN17" s="1">
-        <f t="shared" ref="AN17:AP17" si="63">AM17/$E17</f>
+      <c r="AO17" s="1">
+        <f t="shared" ref="AO17:AQ17" si="63">AN17/$E17</f>
         <v>0.57168192600146317</v>
       </c>
-      <c r="AO17">
+      <c r="AP17">
         <v>26663</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AQ17" s="1">
         <f t="shared" si="63"/>
         <v>0.59107938548848349</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>26596</v>
       </c>
-      <c r="AR17" s="1">
-        <f t="shared" ref="AR17:AT17" si="64">AQ17/$E17</f>
+      <c r="AS17" s="1">
+        <f t="shared" ref="AS17:AU17" si="64">AR17/$E17</f>
         <v>0.58959409430490595</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>26586</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AU17" s="1">
         <f t="shared" si="64"/>
         <v>0.58937240905362565</v>
       </c>
     </row>
-    <row r="18" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>12</v>
       </c>
@@ -5657,146 +6002,147 @@
       <c r="F18" s="2">
         <v>45051</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="31">
         <f t="shared" si="3"/>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="3"/>
+      <c r="I18" s="10">
         <v>44992</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <f t="shared" si="4"/>
         <v>0.99745050657325918</v>
       </c>
-      <c r="J18" s="12">
+      <c r="K18" s="12">
         <v>44984</v>
       </c>
-      <c r="K18" s="11">
+      <c r="L18" s="11">
         <f t="shared" si="5"/>
         <v>0.99727315050879017</v>
       </c>
-      <c r="L18" s="12">
+      <c r="M18" s="12">
         <v>44998</v>
       </c>
-      <c r="M18" s="11">
+      <c r="N18" s="11">
         <f t="shared" si="5"/>
         <v>0.99758352362161085</v>
       </c>
-      <c r="N18" s="18">
+      <c r="O18" s="18">
         <v>45001</v>
       </c>
-      <c r="O18" s="13">
-        <f t="shared" ref="O18:Q18" si="65">N18/$E18</f>
+      <c r="P18" s="13">
+        <f t="shared" ref="P18:R18" si="65">O18/$E18</f>
         <v>0.99765003214578674</v>
       </c>
-      <c r="P18" s="5">
+      <c r="Q18" s="5">
         <v>44984</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <f t="shared" si="65"/>
         <v>0.99727315050879017</v>
       </c>
-      <c r="R18" s="5">
+      <c r="S18" s="5">
         <v>45000</v>
       </c>
-      <c r="S18" s="1">
-        <f t="shared" ref="S18:U18" si="66">R18/$E18</f>
+      <c r="T18" s="1">
+        <f t="shared" ref="T18:V18" si="66">S18/$E18</f>
         <v>0.99762786263772807</v>
       </c>
-      <c r="T18" s="5">
+      <c r="U18" s="5">
         <v>44973</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="1">
         <f t="shared" si="66"/>
         <v>0.99702928592014539</v>
       </c>
-      <c r="V18" s="5">
+      <c r="W18" s="5">
         <v>44997</v>
       </c>
-      <c r="W18" s="1">
-        <f t="shared" ref="W18" si="67">V18/$E18</f>
+      <c r="X18" s="1">
+        <f t="shared" ref="X18" si="67">W18/$E18</f>
         <v>0.99756135411355218</v>
       </c>
-      <c r="X18" s="24">
+      <c r="Y18" s="24">
         <v>45073</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Z18" s="25">
         <f t="shared" si="0"/>
         <v>0.9992462367260071</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AA18" s="6">
         <v>44904</v>
       </c>
-      <c r="AA18" s="25">
+      <c r="AB18" s="25">
         <f t="shared" si="1"/>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>44920</v>
       </c>
-      <c r="AC18" s="25">
+      <c r="AD18" s="25">
         <f t="shared" si="2"/>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="10">
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="10">
         <v>40749</v>
       </c>
-      <c r="AF18" s="11">
+      <c r="AG18" s="11">
         <f t="shared" si="9"/>
         <v>0.90338528388055073</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AH18" s="12">
         <v>39843</v>
       </c>
-      <c r="AH18" s="11">
+      <c r="AI18" s="11">
         <f t="shared" si="10"/>
         <v>0.88329970957944448</v>
       </c>
-      <c r="AI18" s="12">
+      <c r="AJ18" s="12">
         <v>39579</v>
       </c>
-      <c r="AJ18" s="11">
+      <c r="AK18" s="11">
         <f t="shared" si="11"/>
         <v>0.87744695945196971</v>
       </c>
-      <c r="AK18" s="12">
+      <c r="AL18" s="12">
         <v>39687</v>
       </c>
-      <c r="AL18" s="13">
+      <c r="AM18" s="13">
         <f t="shared" si="12"/>
         <v>0.87984126632230031</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>27380</v>
       </c>
-      <c r="AN18" s="1">
-        <f t="shared" ref="AN18:AP18" si="68">AM18/$E18</f>
+      <c r="AO18" s="1">
+        <f t="shared" ref="AO18:AQ18" si="68">AN18/$E18</f>
         <v>0.60700113064491101</v>
       </c>
-      <c r="AO18">
+      <c r="AP18">
         <v>26232</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AQ18" s="1">
         <f t="shared" si="68"/>
         <v>0.58155053539361956</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>26016</v>
       </c>
-      <c r="AR18" s="1">
-        <f t="shared" ref="AR18:AT18" si="69">AQ18/$E18</f>
+      <c r="AS18" s="1">
+        <f t="shared" ref="AS18:AU18" si="69">AR18/$E18</f>
         <v>0.57676192165295848</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>26811</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AU18" s="1">
         <f t="shared" si="69"/>
         <v>0.59438668055955834</v>
       </c>
     </row>
-    <row r="19" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>13</v>
       </c>
@@ -5809,146 +6155,147 @@
       <c r="F19" s="2">
         <v>45051</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="3"/>
+      <c r="I19" s="10">
         <v>44992</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <f t="shared" si="4"/>
         <v>0.99738417202394147</v>
       </c>
-      <c r="J19" s="12">
+      <c r="K19" s="12">
         <v>44987</v>
       </c>
-      <c r="K19" s="11">
+      <c r="L19" s="11">
         <f t="shared" si="5"/>
         <v>0.99727333185546441</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>45000</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <f t="shared" si="5"/>
         <v>0.99756151629350476</v>
       </c>
-      <c r="N19" s="18">
+      <c r="O19" s="18">
         <v>44998</v>
       </c>
-      <c r="O19" s="13">
-        <f t="shared" ref="O19:Q19" si="70">N19/$E19</f>
+      <c r="P19" s="13">
+        <f t="shared" ref="P19:R19" si="70">O19/$E19</f>
         <v>0.99751718022611391</v>
       </c>
-      <c r="P19" s="5">
+      <c r="Q19" s="5">
         <v>44983</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <f t="shared" si="70"/>
         <v>0.99718465972068282</v>
       </c>
-      <c r="R19" s="5">
+      <c r="S19" s="5">
         <v>45002</v>
       </c>
-      <c r="S19" s="1">
-        <f t="shared" ref="S19:U19" si="71">R19/$E19</f>
+      <c r="T19" s="1">
+        <f t="shared" ref="T19:V19" si="71">S19/$E19</f>
         <v>0.99760585236089561</v>
       </c>
-      <c r="T19" s="5">
+      <c r="U19" s="5">
         <v>44974</v>
       </c>
-      <c r="U19" s="1">
+      <c r="V19" s="1">
         <f t="shared" si="71"/>
         <v>0.99698514741742406</v>
       </c>
-      <c r="V19" s="5">
+      <c r="W19" s="5">
         <v>45000</v>
       </c>
-      <c r="W19" s="1">
-        <f t="shared" ref="W19" si="72">V19/$E19</f>
+      <c r="X19" s="1">
+        <f t="shared" ref="X19" si="72">W19/$E19</f>
         <v>0.99756151629350476</v>
       </c>
-      <c r="X19" s="24">
+      <c r="Y19" s="24">
         <v>45095</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Z19" s="25">
         <f t="shared" si="0"/>
         <v>0.9996674794945688</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AA19" s="6">
         <v>44904</v>
       </c>
-      <c r="AA19" s="25">
+      <c r="AB19" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>44920</v>
       </c>
-      <c r="AC19" s="25">
+      <c r="AD19" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="10">
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="10">
         <v>41172</v>
       </c>
-      <c r="AF19" s="11">
+      <c r="AG19" s="11">
         <f t="shared" si="9"/>
         <v>0.91270228330747061</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AH19" s="12">
         <v>40153</v>
       </c>
-      <c r="AH19" s="11">
+      <c r="AI19" s="11">
         <f t="shared" si="10"/>
         <v>0.89011305697184662</v>
       </c>
-      <c r="AI19" s="12">
+      <c r="AJ19" s="12">
         <v>39989</v>
       </c>
-      <c r="AJ19" s="11">
+      <c r="AK19" s="11">
         <f t="shared" si="11"/>
         <v>0.88647749944579912</v>
       </c>
-      <c r="AK19" s="12">
+      <c r="AL19" s="12">
         <v>40015</v>
       </c>
-      <c r="AL19" s="13">
+      <c r="AM19" s="13">
         <f t="shared" si="12"/>
         <v>0.88705386832187982</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>27437</v>
       </c>
-      <c r="AN19" s="1">
-        <f t="shared" ref="AN19:AP19" si="73">AM19/$E19</f>
+      <c r="AO19" s="1">
+        <f t="shared" ref="AO19:AQ19" si="73">AN19/$E19</f>
         <v>0.60822434050099761</v>
       </c>
-      <c r="AO19">
+      <c r="AP19">
         <v>26461</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AQ19" s="1">
         <f t="shared" si="73"/>
         <v>0.58658833961427626</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>26712</v>
       </c>
-      <c r="AR19" s="1">
-        <f t="shared" ref="AR19:AT19" si="74">AQ19/$E19</f>
+      <c r="AS19" s="1">
+        <f t="shared" ref="AS19:AU19" si="74">AR19/$E19</f>
         <v>0.5921525160718244</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>26111</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AU19" s="1">
         <f t="shared" si="74"/>
         <v>0.57882952782088226</v>
       </c>
     </row>
-    <row r="20" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>14</v>
       </c>
@@ -5961,146 +6308,147 @@
       <c r="F20" s="2">
         <v>45051</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="3"/>
+      <c r="I20" s="10">
         <v>44992</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <f t="shared" si="4"/>
         <v>0.99736206246813419</v>
       </c>
-      <c r="J20" s="12">
+      <c r="K20" s="12">
         <v>44986</v>
       </c>
-      <c r="K20" s="11">
+      <c r="L20" s="11">
         <f t="shared" si="5"/>
         <v>0.99722905721442667</v>
       </c>
-      <c r="L20" s="12">
+      <c r="M20" s="12">
         <v>44998</v>
       </c>
-      <c r="M20" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="5"/>
         <v>0.99749506772184171</v>
       </c>
-      <c r="N20" s="18">
+      <c r="O20" s="18">
         <v>44994</v>
       </c>
-      <c r="O20" s="13">
-        <f t="shared" ref="O20:Q20" si="75">N20/$E20</f>
+      <c r="P20" s="13">
+        <f t="shared" ref="P20:R20" si="75">O20/$E20</f>
         <v>0.99740639755270333</v>
       </c>
-      <c r="P20" s="5">
+      <c r="Q20" s="5">
         <v>44984</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <f t="shared" si="75"/>
         <v>0.99718472212985743</v>
       </c>
-      <c r="R20" s="5">
+      <c r="S20" s="5">
         <v>45000</v>
       </c>
-      <c r="S20" s="1">
-        <f t="shared" ref="S20:U20" si="76">R20/$E20</f>
+      <c r="T20" s="1">
+        <f t="shared" ref="T20:V20" si="76">S20/$E20</f>
         <v>0.99753940280641085</v>
       </c>
-      <c r="T20" s="5">
+      <c r="U20" s="5">
         <v>44967</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="1">
         <f t="shared" si="76"/>
         <v>0.99680787391101944</v>
       </c>
-      <c r="V20" s="5">
+      <c r="W20" s="5">
         <v>44997</v>
       </c>
-      <c r="W20" s="1">
-        <f t="shared" ref="W20" si="77">V20/$E20</f>
+      <c r="X20" s="1">
+        <f t="shared" ref="X20" si="77">W20/$E20</f>
         <v>0.99747290017955714</v>
       </c>
-      <c r="X20" s="24">
+      <c r="Y20" s="24">
         <v>45099</v>
       </c>
-      <c r="Y20" s="25">
+      <c r="Z20" s="25">
         <f t="shared" si="0"/>
         <v>0.99973398949258496</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AA20" s="6">
         <v>44904</v>
       </c>
-      <c r="AA20" s="25">
+      <c r="AB20" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>44920</v>
       </c>
-      <c r="AC20" s="25">
+      <c r="AD20" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="10">
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="10">
         <v>41575</v>
       </c>
-      <c r="AF20" s="11">
+      <c r="AG20" s="11">
         <f t="shared" si="9"/>
         <v>0.92161557048170073</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AH20" s="12">
         <v>40291</v>
       </c>
-      <c r="AH20" s="11">
+      <c r="AI20" s="11">
         <f t="shared" si="10"/>
         <v>0.89315244618829115</v>
       </c>
-      <c r="AI20" s="12">
+      <c r="AJ20" s="12">
         <v>40535</v>
       </c>
-      <c r="AJ20" s="11">
+      <c r="AK20" s="11">
         <f t="shared" si="11"/>
         <v>0.89856132650573028</v>
       </c>
-      <c r="AK20" s="12">
+      <c r="AL20" s="12">
         <v>40459</v>
       </c>
-      <c r="AL20" s="13">
+      <c r="AM20" s="13">
         <f t="shared" si="12"/>
         <v>0.89687659329210168</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>25912</v>
       </c>
-      <c r="AN20" s="1">
-        <f t="shared" ref="AN20:AP20" si="78">AM20/$E20</f>
+      <c r="AO20" s="1">
+        <f t="shared" ref="AO20:AQ20" si="78">AN20/$E20</f>
         <v>0.57440535567821593</v>
       </c>
-      <c r="AO20">
+      <c r="AP20">
         <v>26995</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AQ20" s="1">
         <f t="shared" si="78"/>
         <v>0.59841280397242358</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>27172</v>
       </c>
-      <c r="AR20" s="1">
-        <f t="shared" ref="AR20:AT20" si="79">AQ20/$E20</f>
+      <c r="AS20" s="1">
+        <f t="shared" ref="AS20:AU20" si="79">AR20/$E20</f>
         <v>0.60233645895679544</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>26704</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AU20" s="1">
         <f t="shared" si="79"/>
         <v>0.59196204916760875</v>
       </c>
     </row>
-    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>15</v>
       </c>
@@ -6113,146 +6461,147 @@
       <c r="F21" s="2">
         <v>45051</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="3"/>
+      <c r="I21" s="10">
         <v>44983</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <f t="shared" si="4"/>
         <v>0.99720676583386902</v>
       </c>
-      <c r="J21" s="12">
+      <c r="K21" s="12">
         <v>44978</v>
       </c>
-      <c r="K21" s="11">
+      <c r="L21" s="11">
         <f t="shared" si="5"/>
         <v>0.99709592320822893</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <v>44992</v>
       </c>
-      <c r="M21" s="11">
+      <c r="N21" s="11">
         <f t="shared" si="5"/>
         <v>0.99740628256002128</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="18">
         <v>44989</v>
       </c>
-      <c r="O21" s="13">
-        <f t="shared" ref="O21:Q21" si="80">N21/$E21</f>
+      <c r="P21" s="13">
+        <f t="shared" ref="P21:R21" si="80">O21/$E21</f>
         <v>0.99733977698463716</v>
       </c>
-      <c r="P21" s="5">
+      <c r="Q21" s="5">
         <v>44976</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <f t="shared" si="80"/>
         <v>0.99705158615797296</v>
       </c>
-      <c r="R21" s="5">
+      <c r="S21" s="5">
         <v>44993</v>
       </c>
-      <c r="S21" s="1">
-        <f t="shared" ref="S21:U21" si="81">R21/$E21</f>
+      <c r="T21" s="1">
+        <f t="shared" ref="T21:V21" si="81">S21/$E21</f>
         <v>0.99742845108514933</v>
       </c>
-      <c r="T21" s="5">
+      <c r="U21" s="5">
         <v>44966</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="1">
         <f t="shared" si="81"/>
         <v>0.99682990090669266</v>
       </c>
-      <c r="V21" s="5">
+      <c r="W21" s="5">
         <v>44997</v>
       </c>
-      <c r="W21" s="1">
-        <f t="shared" ref="W21" si="82">V21/$E21</f>
+      <c r="X21" s="1">
+        <f t="shared" ref="X21" si="82">W21/$E21</f>
         <v>0.99751712518566138</v>
       </c>
-      <c r="X21" s="24">
+      <c r="Y21" s="24">
         <v>45032</v>
       </c>
-      <c r="Y21" s="25">
+      <c r="Z21" s="25">
         <f t="shared" si="0"/>
         <v>0.99829302356514216</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AA21" s="6">
         <v>44903</v>
       </c>
-      <c r="AA21" s="25">
+      <c r="AB21" s="25">
         <f t="shared" si="1"/>
         <v>0.99543328382362717</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>44920</v>
       </c>
-      <c r="AC21" s="25">
+      <c r="AD21" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="10">
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="10">
         <v>41564</v>
       </c>
-      <c r="AF21" s="11">
+      <c r="AG21" s="11">
         <f t="shared" si="9"/>
         <v>0.92141257842115765</v>
       </c>
-      <c r="AG21" s="12">
+      <c r="AH21" s="12">
         <v>40757</v>
       </c>
-      <c r="AH21" s="11">
+      <c r="AI21" s="11">
         <f t="shared" si="10"/>
         <v>0.90352257864284291</v>
       </c>
-      <c r="AI21" s="12">
+      <c r="AJ21" s="12">
         <v>40572</v>
       </c>
-      <c r="AJ21" s="11">
+      <c r="AK21" s="11">
         <f t="shared" si="11"/>
         <v>0.89942140149415861</v>
       </c>
-      <c r="AK21" s="12">
+      <c r="AL21" s="12">
         <v>40534</v>
       </c>
-      <c r="AL21" s="13">
+      <c r="AM21" s="13">
         <f t="shared" si="12"/>
         <v>0.89857899753929371</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>25804</v>
       </c>
-      <c r="AN21" s="1">
-        <f t="shared" ref="AN21:AP21" si="83">AM21/$E21</f>
+      <c r="AO21" s="1">
+        <f t="shared" ref="AO21:AQ21" si="83">AN21/$E21</f>
         <v>0.5720366224035115</v>
       </c>
-      <c r="AO21">
+      <c r="AP21">
         <v>26264</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AQ21" s="1">
         <f t="shared" si="83"/>
         <v>0.58223414396240214</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>26300</v>
       </c>
-      <c r="AR21" s="1">
-        <f t="shared" ref="AR21:AT21" si="84">AQ21/$E21</f>
+      <c r="AS21" s="1">
+        <f t="shared" ref="AS21:AU21" si="84">AR21/$E21</f>
         <v>0.58303221086701107</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>26605</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AU21" s="1">
         <f t="shared" si="84"/>
         <v>0.5897936110310581</v>
       </c>
     </row>
-    <row r="22" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>16</v>
       </c>
@@ -6265,146 +6614,147 @@
       <c r="F22" s="2">
         <v>45051</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="31">
         <f t="shared" si="3"/>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="3"/>
+      <c r="I22" s="10">
         <v>44997</v>
       </c>
-      <c r="I22" s="11">
+      <c r="J22" s="11">
         <f t="shared" si="4"/>
         <v>0.99756135411355218</v>
       </c>
-      <c r="J22" s="12">
+      <c r="K22" s="12">
         <v>44989</v>
       </c>
-      <c r="K22" s="11">
+      <c r="L22" s="11">
         <f t="shared" si="5"/>
         <v>0.99738399804908329</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <v>45003</v>
       </c>
-      <c r="M22" s="11">
+      <c r="N22" s="11">
         <f t="shared" si="5"/>
         <v>0.99769437116190396</v>
       </c>
-      <c r="N22" s="18">
+      <c r="O22" s="18">
         <v>45002</v>
       </c>
-      <c r="O22" s="13">
-        <f t="shared" ref="O22:Q22" si="85">N22/$E22</f>
+      <c r="P22" s="13">
+        <f t="shared" ref="P22:R22" si="85">O22/$E22</f>
         <v>0.99767220165384529</v>
       </c>
-      <c r="P22" s="5">
+      <c r="Q22" s="5">
         <v>44987</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <f t="shared" si="85"/>
         <v>0.99733965903296606</v>
       </c>
-      <c r="R22" s="5">
+      <c r="S22" s="5">
         <v>45004</v>
       </c>
-      <c r="S22" s="1">
-        <f t="shared" ref="S22:U22" si="86">R22/$E22</f>
+      <c r="T22" s="1">
+        <f t="shared" ref="T22:V22" si="86">S22/$E22</f>
         <v>0.99771654066996251</v>
       </c>
-      <c r="T22" s="5">
+      <c r="U22" s="5">
         <v>44974</v>
       </c>
-      <c r="U22" s="1">
+      <c r="V22" s="1">
         <f t="shared" si="86"/>
         <v>0.99705145542820406</v>
       </c>
-      <c r="V22" s="5">
+      <c r="W22" s="5">
         <v>45003</v>
       </c>
-      <c r="W22" s="1">
-        <f t="shared" ref="W22" si="87">V22/$E22</f>
+      <c r="X22" s="1">
+        <f t="shared" ref="X22" si="87">W22/$E22</f>
         <v>0.99769437116190396</v>
       </c>
-      <c r="X22" s="24">
+      <c r="Y22" s="24">
         <v>45092</v>
       </c>
-      <c r="Y22" s="25">
+      <c r="Z22" s="25">
         <f t="shared" si="0"/>
         <v>0.99966745737912077</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AA22" s="6">
         <v>44904</v>
       </c>
-      <c r="AA22" s="25">
+      <c r="AB22" s="25">
         <f t="shared" si="1"/>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>44920</v>
       </c>
-      <c r="AC22" s="25">
+      <c r="AD22" s="25">
         <f t="shared" si="2"/>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="10">
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="10">
         <v>39491</v>
       </c>
-      <c r="AF22" s="11">
+      <c r="AG22" s="11">
         <f t="shared" si="9"/>
         <v>0.87549604274281156</v>
       </c>
-      <c r="AG22" s="12">
+      <c r="AH22" s="12">
         <v>38626</v>
       </c>
-      <c r="AH22" s="11">
+      <c r="AI22" s="11">
         <f t="shared" si="10"/>
         <v>0.85631941827210856</v>
       </c>
-      <c r="AI22" s="12">
+      <c r="AJ22" s="12">
         <v>38820</v>
       </c>
-      <c r="AJ22" s="11">
+      <c r="AK22" s="11">
         <f t="shared" si="11"/>
         <v>0.86062030283548008</v>
       </c>
-      <c r="AK22" s="12">
+      <c r="AL22" s="12">
         <v>38579</v>
       </c>
-      <c r="AL22" s="13">
+      <c r="AM22" s="13">
         <f t="shared" si="12"/>
         <v>0.85527745139335354</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>27499</v>
       </c>
-      <c r="AN22" s="1">
-        <f t="shared" ref="AN22:AP22" si="88">AM22/$E22</f>
+      <c r="AO22" s="1">
+        <f t="shared" ref="AO22:AQ22" si="88">AN22/$E22</f>
         <v>0.60963930210388628</v>
       </c>
-      <c r="AO22">
+      <c r="AP22">
         <v>25852</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AQ22" s="1">
         <f t="shared" si="88"/>
         <v>0.57312612233134552</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>25553</v>
       </c>
-      <c r="AR22" s="1">
-        <f t="shared" ref="AR22:AT22" si="89">AQ22/$E22</f>
+      <c r="AS22" s="1">
+        <f t="shared" ref="AS22:AU22" si="89">AR22/$E22</f>
         <v>0.56649743942181918</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>26401</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AU22" s="1">
         <f t="shared" si="89"/>
         <v>0.58529718225552574</v>
       </c>
     </row>
-    <row r="23" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>17</v>
       </c>
@@ -6417,146 +6767,147 @@
       <c r="F23" s="2">
         <v>45051</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="3"/>
+      <c r="I23" s="10">
         <v>44995</v>
       </c>
-      <c r="I23" s="11">
+      <c r="J23" s="11">
         <f t="shared" si="4"/>
         <v>0.99745067612502769</v>
       </c>
-      <c r="J23" s="12">
+      <c r="K23" s="12">
         <v>44989</v>
       </c>
-      <c r="K23" s="11">
+      <c r="L23" s="11">
         <f t="shared" si="5"/>
         <v>0.99731766792285526</v>
       </c>
-      <c r="L23" s="12">
+      <c r="M23" s="12">
         <v>45001</v>
       </c>
-      <c r="M23" s="11">
+      <c r="N23" s="11">
         <f t="shared" si="5"/>
         <v>0.99758368432720013</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="18">
         <v>44999</v>
       </c>
-      <c r="O23" s="13">
-        <f t="shared" ref="O23:Q23" si="90">N23/$E23</f>
+      <c r="P23" s="13">
+        <f t="shared" ref="P23:R23" si="90">O23/$E23</f>
         <v>0.99753934825980939</v>
       </c>
-      <c r="P23" s="5">
+      <c r="Q23" s="5">
         <v>44987</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <f t="shared" si="90"/>
         <v>0.99727333185546441</v>
       </c>
-      <c r="R23" s="5">
+      <c r="S23" s="5">
         <v>45002</v>
       </c>
-      <c r="S23" s="1">
-        <f t="shared" ref="S23:U23" si="91">R23/$E23</f>
+      <c r="T23" s="1">
+        <f t="shared" ref="T23:V23" si="91">S23/$E23</f>
         <v>0.99760585236089561</v>
       </c>
-      <c r="T23" s="5">
+      <c r="U23" s="5">
         <v>44973</v>
       </c>
-      <c r="U23" s="1">
+      <c r="V23" s="1">
         <f t="shared" si="91"/>
         <v>0.99696297938372869</v>
       </c>
-      <c r="V23" s="5">
+      <c r="W23" s="5">
         <v>45001</v>
       </c>
-      <c r="W23" s="1">
-        <f t="shared" ref="W23" si="92">V23/$E23</f>
+      <c r="X23" s="1">
+        <f t="shared" ref="X23" si="92">W23/$E23</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="X23" s="24">
+      <c r="Y23" s="24">
         <v>45103</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Z23" s="25">
         <f t="shared" si="0"/>
         <v>0.99984482376413208</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AA23" s="6">
         <v>44904</v>
       </c>
-      <c r="AA23" s="25">
+      <c r="AB23" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>44920</v>
       </c>
-      <c r="AC23" s="25">
+      <c r="AD23" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="10">
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="10">
         <v>36911</v>
       </c>
-      <c r="AF23" s="11">
+      <c r="AG23" s="11">
         <f t="shared" si="9"/>
         <v>0.8182442917313234</v>
       </c>
-      <c r="AG23" s="12">
+      <c r="AH23" s="12">
         <v>36119</v>
       </c>
-      <c r="AH23" s="11">
+      <c r="AI23" s="11">
         <f t="shared" si="10"/>
         <v>0.8006872090445577</v>
       </c>
-      <c r="AI23" s="12">
+      <c r="AJ23" s="12">
         <v>36439</v>
       </c>
-      <c r="AJ23" s="11">
+      <c r="AK23" s="11">
         <f t="shared" si="11"/>
         <v>0.8077809798270893</v>
       </c>
-      <c r="AK23" s="12">
+      <c r="AL23" s="12">
         <v>36505</v>
       </c>
-      <c r="AL23" s="13">
+      <c r="AM23" s="13">
         <f t="shared" si="12"/>
         <v>0.80924407005098653</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>26446</v>
       </c>
-      <c r="AN23" s="1">
-        <f t="shared" ref="AN23:AP23" si="93">AM23/$E23</f>
+      <c r="AO23" s="1">
+        <f t="shared" ref="AO23:AQ23" si="93">AN23/$E23</f>
         <v>0.58625581910884506</v>
       </c>
-      <c r="AO23">
+      <c r="AP23">
         <v>26132</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AQ23" s="1">
         <f t="shared" si="93"/>
         <v>0.5792950565284859</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>26522</v>
       </c>
-      <c r="AR23" s="1">
-        <f t="shared" ref="AR23:AT23" si="94">AQ23/$E23</f>
+      <c r="AS23" s="1">
+        <f t="shared" ref="AS23:AU23" si="94">AR23/$E23</f>
         <v>0.58794058966969631</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>25574</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AU23" s="1">
         <f t="shared" si="94"/>
         <v>0.56692529372644651</v>
       </c>
     </row>
-    <row r="24" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>18</v>
       </c>
@@ -6569,146 +6920,147 @@
       <c r="F24" s="2">
         <v>45051</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="3"/>
+      <c r="I24" s="10">
         <v>44995</v>
       </c>
-      <c r="I24" s="11">
+      <c r="J24" s="11">
         <f t="shared" si="4"/>
         <v>0.9974285650949879</v>
       </c>
-      <c r="J24" s="12">
+      <c r="K24" s="12">
         <v>44989</v>
       </c>
-      <c r="K24" s="11">
+      <c r="L24" s="11">
         <f t="shared" si="5"/>
         <v>0.99729555984128038</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <v>45001</v>
       </c>
-      <c r="M24" s="11">
+      <c r="N24" s="11">
         <f t="shared" si="5"/>
         <v>0.99756157034869541</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="18">
         <v>45001</v>
       </c>
-      <c r="O24" s="13">
-        <f t="shared" ref="O24:Q24" si="95">N24/$E24</f>
+      <c r="P24" s="13">
+        <f t="shared" ref="P24:R24" si="95">O24/$E24</f>
         <v>0.99756157034869541</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q24" s="5">
         <v>44987</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <f t="shared" si="95"/>
         <v>0.99725122475671124</v>
       </c>
-      <c r="R24" s="5">
+      <c r="S24" s="5">
         <v>45003</v>
       </c>
-      <c r="S24" s="1">
-        <f t="shared" ref="S24:U24" si="96">R24/$E24</f>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24:V24" si="96">S24/$E24</f>
         <v>0.99760590543326466</v>
       </c>
-      <c r="T24" s="5">
+      <c r="U24" s="5">
         <v>44975</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="1">
         <f t="shared" si="96"/>
         <v>0.9969852142492962</v>
       </c>
-      <c r="V24" s="5">
+      <c r="W24" s="5">
         <v>45003</v>
       </c>
-      <c r="W24" s="1">
-        <f t="shared" ref="W24" si="97">V24/$E24</f>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24" si="97">W24/$E24</f>
         <v>0.99760590543326466</v>
       </c>
-      <c r="X24" s="24">
+      <c r="Y24" s="24">
         <v>45098</v>
       </c>
-      <c r="Y24" s="25">
+      <c r="Z24" s="25">
         <f t="shared" si="0"/>
         <v>0.99971182195030039</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AA24" s="6">
         <v>44904</v>
       </c>
-      <c r="AA24" s="25">
+      <c r="AB24" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>44920</v>
       </c>
-      <c r="AC24" s="25">
+      <c r="AD24" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="10">
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="10">
         <v>37032</v>
       </c>
-      <c r="AF24" s="11">
+      <c r="AG24" s="11">
         <f t="shared" si="9"/>
         <v>0.82090842588282242</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AH24" s="12">
         <v>35878</v>
       </c>
-      <c r="AH24" s="11">
+      <c r="AI24" s="11">
         <f t="shared" si="10"/>
         <v>0.79532708208640912</v>
       </c>
-      <c r="AI24" s="12">
+      <c r="AJ24" s="12">
         <v>36347</v>
       </c>
-      <c r="AJ24" s="11">
+      <c r="AK24" s="11">
         <f t="shared" si="11"/>
         <v>0.80572365941788038</v>
       </c>
-      <c r="AK24" s="12">
+      <c r="AL24" s="12">
         <v>36513</v>
       </c>
-      <c r="AL24" s="13">
+      <c r="AM24" s="13">
         <f t="shared" si="12"/>
         <v>0.80940347143712177</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>25149</v>
       </c>
-      <c r="AN24" s="1">
-        <f t="shared" ref="AN24:AP24" si="98">AM24/$E24</f>
+      <c r="AO24" s="1">
+        <f t="shared" ref="AO24:AQ24" si="98">AN24/$E24</f>
         <v>0.55749152091507614</v>
       </c>
-      <c r="AO24">
+      <c r="AP24">
         <v>26325</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AQ24" s="1">
         <f t="shared" si="98"/>
         <v>0.58356055064175039</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>26476</v>
       </c>
-      <c r="AR24" s="1">
-        <f t="shared" ref="AR24:AT24" si="99">AQ24/$E24</f>
+      <c r="AS24" s="1">
+        <f t="shared" ref="AS24:AU24" si="99">AR24/$E24</f>
         <v>0.58690784952672292</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>26063</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AU24" s="1">
         <f t="shared" si="99"/>
         <v>0.57775265456318858</v>
       </c>
     </row>
-    <row r="25" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>19</v>
       </c>
@@ -6721,146 +7073,147 @@
       <c r="F25" s="2">
         <v>45051</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="3"/>
+      <c r="I25" s="10">
         <v>44997</v>
       </c>
-      <c r="I25" s="11">
+      <c r="J25" s="11">
         <f t="shared" si="4"/>
         <v>0.99751712518566138</v>
       </c>
-      <c r="J25" s="12">
+      <c r="K25" s="12">
         <v>44986</v>
       </c>
-      <c r="K25" s="11">
+      <c r="L25" s="11">
         <f t="shared" si="5"/>
         <v>0.99727327140925315</v>
       </c>
-      <c r="L25" s="12">
+      <c r="M25" s="12">
         <v>44999</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="11">
         <f t="shared" si="5"/>
         <v>0.99756146223591746</v>
       </c>
-      <c r="N25" s="18">
+      <c r="O25" s="18">
         <v>45001</v>
       </c>
-      <c r="O25" s="13">
-        <f t="shared" ref="O25:Q25" si="100">N25/$E25</f>
+      <c r="P25" s="13">
+        <f t="shared" ref="P25:R25" si="100">O25/$E25</f>
         <v>0.99760579928617354</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q25" s="5">
         <v>44986</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <f t="shared" si="100"/>
         <v>0.99727327140925315</v>
       </c>
-      <c r="R25" s="5">
+      <c r="S25" s="5">
         <v>45004</v>
       </c>
-      <c r="S25" s="1">
-        <f t="shared" ref="S25:U25" si="101">R25/$E25</f>
+      <c r="T25" s="1">
+        <f t="shared" ref="T25:V25" si="101">S25/$E25</f>
         <v>0.99767230486155756</v>
       </c>
-      <c r="T25" s="5">
+      <c r="U25" s="5">
         <v>44973</v>
       </c>
-      <c r="U25" s="1">
+      <c r="V25" s="1">
         <f t="shared" si="101"/>
         <v>0.99698508058258883</v>
       </c>
-      <c r="V25" s="5">
+      <c r="W25" s="5">
         <v>45002</v>
       </c>
-      <c r="W25" s="1">
-        <f t="shared" ref="W25" si="102">V25/$E25</f>
+      <c r="X25" s="1">
+        <f t="shared" ref="X25" si="102">W25/$E25</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="X25" s="24">
+      <c r="Y25" s="24">
         <v>45091</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Z25" s="25">
         <f t="shared" si="0"/>
         <v>0.99960096654769559</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AA25" s="6">
         <v>44904</v>
       </c>
-      <c r="AA25" s="25">
+      <c r="AB25" s="25">
         <f t="shared" si="1"/>
         <v>0.99545545234875521</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>44920</v>
       </c>
-      <c r="AC25" s="25">
+      <c r="AD25" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="10">
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="10">
         <v>37569</v>
       </c>
-      <c r="AF25" s="11">
+      <c r="AG25" s="11">
         <f t="shared" si="9"/>
         <v>0.83284932053470484</v>
       </c>
-      <c r="AG25" s="12">
+      <c r="AH25" s="12">
         <v>36807</v>
       </c>
-      <c r="AH25" s="11">
+      <c r="AI25" s="11">
         <f t="shared" si="10"/>
         <v>0.81595690438715107</v>
       </c>
-      <c r="AI25" s="12">
+      <c r="AJ25" s="12">
         <v>36789</v>
       </c>
-      <c r="AJ25" s="11">
+      <c r="AK25" s="11">
         <f t="shared" si="11"/>
         <v>0.81555787093484666</v>
       </c>
-      <c r="AK25" s="12">
+      <c r="AL25" s="12">
         <v>36577</v>
       </c>
-      <c r="AL25" s="13">
+      <c r="AM25" s="13">
         <f t="shared" si="12"/>
         <v>0.81085814360770581</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>25817</v>
       </c>
-      <c r="AN25" s="1">
-        <f t="shared" ref="AN25:AP25" si="103">AM25/$E25</f>
+      <c r="AO25" s="1">
+        <f t="shared" ref="AO25:AQ25" si="103">AN25/$E25</f>
         <v>0.57232481323017581</v>
       </c>
-      <c r="AO25">
+      <c r="AP25">
         <v>25803</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AQ25" s="1">
         <f t="shared" si="103"/>
         <v>0.57201445387838346</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>25729</v>
       </c>
-      <c r="AR25" s="1">
-        <f t="shared" ref="AR25:AT25" si="104">AQ25/$E25</f>
+      <c r="AS25" s="1">
+        <f t="shared" ref="AS25:AU25" si="104">AR25/$E25</f>
         <v>0.57037398301890974</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>26210</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AU25" s="1">
         <f t="shared" si="104"/>
         <v>0.58103704360548891</v>
       </c>
     </row>
-    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>20</v>
       </c>
@@ -6873,146 +7226,147 @@
       <c r="F26" s="2">
         <v>45050</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="31">
         <f t="shared" si="3"/>
         <v>0.99864777992064024</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="3"/>
+      <c r="I26" s="10">
         <v>44912</v>
       </c>
-      <c r="I26" s="11">
+      <c r="J26" s="11">
         <f t="shared" si="4"/>
         <v>0.9955886590853672</v>
       </c>
-      <c r="J26" s="12">
+      <c r="K26" s="12">
         <v>44920</v>
       </c>
-      <c r="K26" s="11">
+      <c r="L26" s="11">
         <f t="shared" si="5"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="L26" s="12">
+      <c r="M26" s="12">
         <v>44918</v>
       </c>
-      <c r="M26" s="11">
+      <c r="N26" s="11">
         <f t="shared" si="5"/>
         <v>0.99572166433907472</v>
       </c>
-      <c r="N26" s="18">
+      <c r="O26" s="18">
         <v>44911</v>
       </c>
-      <c r="O26" s="13">
-        <f t="shared" ref="O26:Q26" si="105">N26/$E26</f>
+      <c r="P26" s="13">
+        <f t="shared" ref="P26:R26" si="105">O26/$E26</f>
         <v>0.99556649154308263</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q26" s="5">
         <v>44905</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <f t="shared" si="105"/>
         <v>0.99543348628937511</v>
       </c>
-      <c r="R26" s="5">
+      <c r="S26" s="5">
         <v>44919</v>
       </c>
-      <c r="S26" s="1">
-        <f t="shared" ref="S26:U26" si="106">R26/$E26</f>
+      <c r="T26" s="1">
+        <f t="shared" ref="T26:V26" si="106">S26/$E26</f>
         <v>0.99574383188135929</v>
       </c>
-      <c r="T26" s="5">
+      <c r="U26" s="5">
         <v>44893</v>
       </c>
-      <c r="U26" s="1">
+      <c r="V26" s="1">
         <f t="shared" si="106"/>
         <v>0.99516747578196008</v>
       </c>
-      <c r="V26" s="5">
+      <c r="W26" s="5">
         <v>44927</v>
       </c>
-      <c r="W26" s="1">
-        <f t="shared" ref="W26" si="107">V26/$E26</f>
+      <c r="X26" s="1">
+        <f t="shared" ref="X26" si="107">W26/$E26</f>
         <v>0.99592117221963605</v>
       </c>
-      <c r="X26" s="24">
+      <c r="Y26" s="24">
         <v>43466</v>
       </c>
-      <c r="Y26" s="25">
+      <c r="Z26" s="25">
         <f t="shared" si="0"/>
         <v>0.9635343929418545</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AA26" s="6">
         <v>44903</v>
       </c>
-      <c r="AA26" s="25">
+      <c r="AB26" s="25">
         <f t="shared" si="1"/>
         <v>0.99538915120480598</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>44919</v>
       </c>
-      <c r="AC26" s="25">
+      <c r="AD26" s="25">
         <f t="shared" si="2"/>
         <v>0.99574383188135929</v>
       </c>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="10">
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="10">
         <v>36647</v>
       </c>
-      <c r="AF26" s="11">
+      <c r="AG26" s="11">
         <f t="shared" si="9"/>
         <v>0.81237392210325643</v>
       </c>
-      <c r="AG26" s="12">
+      <c r="AH26" s="12">
         <v>33236</v>
       </c>
-      <c r="AH26" s="11">
+      <c r="AI26" s="11">
         <f t="shared" si="10"/>
         <v>0.73676043537053049</v>
       </c>
-      <c r="AI26" s="12">
+      <c r="AJ26" s="12">
         <v>35105</v>
       </c>
-      <c r="AJ26" s="11">
+      <c r="AK26" s="11">
         <f t="shared" si="11"/>
         <v>0.77819157190042343</v>
       </c>
-      <c r="AK26" s="12">
+      <c r="AL26" s="12">
         <v>33872</v>
       </c>
-      <c r="AL26" s="13">
+      <c r="AM26" s="13">
         <f t="shared" si="12"/>
         <v>0.7508589922635277</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>39785</v>
       </c>
-      <c r="AN26" s="1">
-        <f t="shared" ref="AN26:AP26" si="108">AM26/$E26</f>
+      <c r="AO26" s="1">
+        <f t="shared" ref="AO26:AQ26" si="108">AN26/$E26</f>
         <v>0.8819356697922901</v>
       </c>
-      <c r="AO26">
+      <c r="AP26">
         <v>40037</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AQ26" s="1">
         <f t="shared" si="108"/>
         <v>0.887521890448006</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>40368</v>
       </c>
-      <c r="AR26" s="1">
-        <f t="shared" ref="AR26:AT26" si="109">AQ26/$E26</f>
+      <c r="AS26" s="1">
+        <f t="shared" ref="AS26:AU26" si="109">AR26/$E26</f>
         <v>0.89485934694420433</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>40071</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AU26" s="1">
         <f t="shared" si="109"/>
         <v>0.88827558688568198</v>
       </c>
     </row>
-    <row r="27" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>21</v>
       </c>
@@ -7025,146 +7379,147 @@
       <c r="F27" s="2">
         <v>45051</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="31">
         <f t="shared" si="3"/>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="3"/>
+      <c r="I27" s="10">
         <v>44997</v>
       </c>
-      <c r="I27" s="11">
+      <c r="J27" s="11">
         <f t="shared" si="4"/>
         <v>0.99756135411355218</v>
       </c>
-      <c r="J27" s="12">
+      <c r="K27" s="12">
         <v>44987</v>
       </c>
-      <c r="K27" s="11">
+      <c r="L27" s="11">
         <f t="shared" si="5"/>
         <v>0.99733965903296606</v>
       </c>
-      <c r="L27" s="12">
+      <c r="M27" s="12">
         <v>45003</v>
       </c>
-      <c r="M27" s="11">
+      <c r="N27" s="11">
         <f t="shared" si="5"/>
         <v>0.99769437116190396</v>
       </c>
-      <c r="N27" s="18">
+      <c r="O27" s="18">
         <v>45002</v>
       </c>
-      <c r="O27" s="13">
-        <f t="shared" ref="O27:Q27" si="110">N27/$E27</f>
+      <c r="P27" s="13">
+        <f t="shared" ref="P27:R27" si="110">O27/$E27</f>
         <v>0.99767220165384529</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q27" s="5">
         <v>44987</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <f t="shared" si="110"/>
         <v>0.99733965903296606</v>
       </c>
-      <c r="R27" s="5">
+      <c r="S27" s="5">
         <v>45004</v>
       </c>
-      <c r="S27" s="1">
-        <f t="shared" ref="S27:U27" si="111">R27/$E27</f>
+      <c r="T27" s="1">
+        <f t="shared" ref="T27:V27" si="111">S27/$E27</f>
         <v>0.99771654066996251</v>
       </c>
-      <c r="T27" s="5">
+      <c r="U27" s="5">
         <v>44974</v>
       </c>
-      <c r="U27" s="1">
+      <c r="V27" s="1">
         <f t="shared" si="111"/>
         <v>0.99705145542820406</v>
       </c>
-      <c r="V27" s="5">
+      <c r="W27" s="5">
         <v>45003</v>
       </c>
-      <c r="W27" s="1">
-        <f t="shared" ref="W27" si="112">V27/$E27</f>
+      <c r="X27" s="1">
+        <f t="shared" ref="X27" si="112">W27/$E27</f>
         <v>0.99769437116190396</v>
       </c>
-      <c r="X27" s="24">
+      <c r="Y27" s="24">
         <v>45105</v>
       </c>
-      <c r="Y27" s="25">
+      <c r="Z27" s="25">
         <f t="shared" si="0"/>
         <v>0.99995566098388278</v>
       </c>
-      <c r="Z27" s="6">
+      <c r="AA27" s="6">
         <v>44904</v>
       </c>
-      <c r="AA27" s="25">
+      <c r="AB27" s="25">
         <f t="shared" si="1"/>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>44920</v>
       </c>
-      <c r="AC27" s="25">
+      <c r="AD27" s="25">
         <f t="shared" si="2"/>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="10">
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="10">
         <v>39684</v>
       </c>
-      <c r="AF27" s="11">
+      <c r="AG27" s="11">
         <f t="shared" si="9"/>
         <v>0.87977475779812442</v>
       </c>
-      <c r="AG27" s="12">
+      <c r="AH27" s="12">
         <v>38817</v>
       </c>
-      <c r="AH27" s="11">
+      <c r="AI27" s="11">
         <f t="shared" si="10"/>
         <v>0.86055379431130419</v>
       </c>
-      <c r="AI27" s="12">
+      <c r="AJ27" s="12">
         <v>38854</v>
       </c>
-      <c r="AJ27" s="11">
+      <c r="AK27" s="11">
         <f t="shared" si="11"/>
         <v>0.86137406610947298</v>
       </c>
-      <c r="AK27" s="12">
+      <c r="AL27" s="12">
         <v>38597</v>
       </c>
-      <c r="AL27" s="13">
+      <c r="AM27" s="13">
         <f t="shared" si="12"/>
         <v>0.85567650253840866</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>27630</v>
       </c>
-      <c r="AN27" s="1">
-        <f t="shared" ref="AN27:AP27" si="113">AM27/$E27</f>
+      <c r="AO27" s="1">
+        <f t="shared" ref="AO27:AQ27" si="113">AN27/$E27</f>
         <v>0.612543507659565</v>
       </c>
-      <c r="AO27">
+      <c r="AP27">
         <v>26048</v>
       </c>
-      <c r="AP27" s="1">
+      <c r="AQ27" s="1">
         <f t="shared" si="113"/>
         <v>0.57747134591083427</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>25483</v>
       </c>
-      <c r="AR27" s="1">
-        <f t="shared" ref="AR27:AT27" si="114">AQ27/$E27</f>
+      <c r="AS27" s="1">
+        <f t="shared" ref="AS27:AU27" si="114">AR27/$E27</f>
         <v>0.56494557385771604</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>26249</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AU27" s="1">
         <f t="shared" si="114"/>
         <v>0.58192741703061612</v>
       </c>
     </row>
-    <row r="28" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>22</v>
       </c>
@@ -7177,146 +7532,147 @@
       <c r="F28" s="2">
         <v>45051</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="3"/>
+      <c r="I28" s="10">
         <v>44997</v>
       </c>
-      <c r="I28" s="11">
+      <c r="J28" s="11">
         <f t="shared" si="4"/>
         <v>0.99749501219241854</v>
       </c>
-      <c r="J28" s="12">
+      <c r="K28" s="12">
         <v>44989</v>
       </c>
-      <c r="K28" s="11">
+      <c r="L28" s="11">
         <f t="shared" si="5"/>
         <v>0.99731766792285526</v>
       </c>
-      <c r="L28" s="12">
+      <c r="M28" s="12">
         <v>45003</v>
       </c>
-      <c r="M28" s="11">
+      <c r="N28" s="11">
         <f t="shared" si="5"/>
         <v>0.99762802039459098</v>
       </c>
-      <c r="N28" s="18">
+      <c r="O28" s="18">
         <v>45002</v>
       </c>
-      <c r="O28" s="13">
-        <f t="shared" ref="O28:Q28" si="115">N28/$E28</f>
+      <c r="P28" s="13">
+        <f t="shared" ref="P28:R28" si="115">O28/$E28</f>
         <v>0.99760585236089561</v>
       </c>
-      <c r="P28" s="5">
+      <c r="Q28" s="5">
         <v>44987</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <f t="shared" si="115"/>
         <v>0.99727333185546441</v>
       </c>
-      <c r="R28" s="5">
+      <c r="S28" s="5">
         <v>45003</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" ref="S28:U28" si="116">R28/$E28</f>
+      <c r="T28" s="1">
+        <f t="shared" ref="T28:V28" si="116">S28/$E28</f>
         <v>0.99762802039459098</v>
       </c>
-      <c r="T28" s="5">
+      <c r="U28" s="5">
         <v>44973</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="1">
         <f t="shared" si="116"/>
         <v>0.99696297938372869</v>
       </c>
-      <c r="V28" s="5">
+      <c r="W28" s="5">
         <v>45001</v>
       </c>
-      <c r="W28" s="1">
-        <f t="shared" ref="W28" si="117">V28/$E28</f>
+      <c r="X28" s="1">
+        <f t="shared" ref="X28" si="117">W28/$E28</f>
         <v>0.99758368432720013</v>
       </c>
-      <c r="X28" s="24">
+      <c r="Y28" s="24">
         <v>45102</v>
       </c>
-      <c r="Y28" s="25">
+      <c r="Z28" s="25">
         <f t="shared" si="0"/>
         <v>0.99982265573043672</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AA28" s="6">
         <v>44904</v>
       </c>
-      <c r="AA28" s="25">
+      <c r="AB28" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>44920</v>
       </c>
-      <c r="AC28" s="25">
+      <c r="AD28" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="10">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="10">
         <v>41572</v>
       </c>
-      <c r="AF28" s="11">
+      <c r="AG28" s="11">
         <f t="shared" si="9"/>
         <v>0.92156949678563516</v>
       </c>
-      <c r="AG28" s="12">
+      <c r="AH28" s="12">
         <v>40819</v>
       </c>
-      <c r="AH28" s="11">
+      <c r="AI28" s="11">
         <f t="shared" si="10"/>
         <v>0.90487696741299051</v>
       </c>
-      <c r="AI28" s="12">
+      <c r="AJ28" s="12">
         <v>40338</v>
       </c>
-      <c r="AJ28" s="11">
+      <c r="AK28" s="11">
         <f t="shared" si="11"/>
         <v>0.89421414320549764</v>
       </c>
-      <c r="AK28" s="12">
+      <c r="AL28" s="12">
         <v>40323</v>
       </c>
-      <c r="AL28" s="13">
+      <c r="AM28" s="13">
         <f t="shared" si="12"/>
         <v>0.89388162270006655</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>26578</v>
       </c>
-      <c r="AN28" s="1">
-        <f t="shared" ref="AN28:AP28" si="118">AM28/$E28</f>
+      <c r="AO28" s="1">
+        <f t="shared" ref="AO28:AQ28" si="118">AN28/$E28</f>
         <v>0.5891819995566393</v>
       </c>
-      <c r="AO28">
+      <c r="AP28">
         <v>26520</v>
       </c>
-      <c r="AP28" s="1">
+      <c r="AQ28" s="1">
         <f t="shared" si="118"/>
         <v>0.58789625360230546</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>27223</v>
       </c>
-      <c r="AR28" s="1">
-        <f t="shared" ref="AR28:AT28" si="119">AQ28/$E28</f>
+      <c r="AS28" s="1">
+        <f t="shared" ref="AS28:AU28" si="119">AR28/$E28</f>
         <v>0.60348038129017956</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>26227</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AU28" s="1">
         <f t="shared" si="119"/>
         <v>0.58140101972954994</v>
       </c>
     </row>
-    <row r="29" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>23</v>
       </c>
@@ -7329,146 +7685,147 @@
       <c r="F29" s="2">
         <v>45051</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="3"/>
+      <c r="I29" s="10">
         <v>44997</v>
       </c>
-      <c r="I29" s="11">
+      <c r="J29" s="11">
         <f t="shared" si="4"/>
         <v>0.99747290017955714</v>
       </c>
-      <c r="J29" s="12">
+      <c r="K29" s="12">
         <v>44989</v>
       </c>
-      <c r="K29" s="11">
+      <c r="L29" s="11">
         <f t="shared" si="5"/>
         <v>0.99729555984128038</v>
       </c>
-      <c r="L29" s="12">
+      <c r="M29" s="12">
         <v>45003</v>
       </c>
-      <c r="M29" s="11">
+      <c r="N29" s="11">
         <f t="shared" si="5"/>
         <v>0.99760590543326466</v>
       </c>
-      <c r="N29" s="18">
+      <c r="O29" s="18">
         <v>45002</v>
       </c>
-      <c r="O29" s="13">
-        <f t="shared" ref="O29:Q29" si="120">N29/$E29</f>
+      <c r="P29" s="13">
+        <f t="shared" ref="P29:R29" si="120">O29/$E29</f>
         <v>0.99758373789097998</v>
       </c>
-      <c r="P29" s="5">
+      <c r="Q29" s="5">
         <v>44987</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <f t="shared" si="120"/>
         <v>0.99725122475671124</v>
       </c>
-      <c r="R29" s="5">
+      <c r="S29" s="5">
         <v>45004</v>
       </c>
-      <c r="S29" s="1">
-        <f t="shared" ref="S29:U29" si="121">R29/$E29</f>
+      <c r="T29" s="1">
+        <f t="shared" ref="T29:V29" si="121">S29/$E29</f>
         <v>0.99762807297554923</v>
       </c>
-      <c r="T29" s="5">
+      <c r="U29" s="5">
         <v>44974</v>
       </c>
-      <c r="U29" s="1">
+      <c r="V29" s="1">
         <f t="shared" si="121"/>
         <v>0.99696304670701164</v>
       </c>
-      <c r="V29" s="5">
+      <c r="W29" s="5">
         <v>45003</v>
       </c>
-      <c r="W29" s="1">
-        <f t="shared" ref="W29" si="122">V29/$E29</f>
+      <c r="X29" s="1">
+        <f t="shared" ref="X29" si="122">W29/$E29</f>
         <v>0.99760590543326466</v>
       </c>
-      <c r="X29" s="24">
+      <c r="Y29" s="24">
         <v>45109</v>
       </c>
-      <c r="Y29" s="25">
+      <c r="Z29" s="25">
         <f t="shared" si="0"/>
         <v>0.99995566491543086</v>
       </c>
-      <c r="Z29" s="6">
+      <c r="AA29" s="6">
         <v>44904</v>
       </c>
-      <c r="AA29" s="25">
+      <c r="AB29" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>44920</v>
       </c>
-      <c r="AC29" s="25">
+      <c r="AD29" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="10">
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="10">
         <v>41846</v>
       </c>
-      <c r="AF29" s="11">
+      <c r="AG29" s="11">
         <f t="shared" si="9"/>
         <v>0.92762297444082376</v>
       </c>
-      <c r="AG29" s="12">
+      <c r="AH29" s="12">
         <v>40896</v>
       </c>
-      <c r="AH29" s="11">
+      <c r="AI29" s="11">
         <f t="shared" si="10"/>
         <v>0.9065638092704662</v>
       </c>
-      <c r="AI29" s="12">
+      <c r="AJ29" s="12">
         <v>40756</v>
       </c>
-      <c r="AJ29" s="11">
+      <c r="AK29" s="11">
         <f t="shared" si="11"/>
         <v>0.90346035335062402</v>
       </c>
-      <c r="AK29" s="12">
+      <c r="AL29" s="12">
         <v>40688</v>
       </c>
-      <c r="AL29" s="13">
+      <c r="AM29" s="13">
         <f t="shared" si="12"/>
         <v>0.90195296047527207</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>25630</v>
       </c>
-      <c r="AN29" s="1">
-        <f t="shared" ref="AN29:AP29" si="123">AM29/$E29</f>
+      <c r="AO29" s="1">
+        <f t="shared" ref="AO29:AQ29" si="123">AN29/$E29</f>
         <v>0.56815410875396244</v>
       </c>
-      <c r="AO29">
+      <c r="AP29">
         <v>26788</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AQ29" s="1">
         <f t="shared" si="123"/>
         <v>0.59382412271951412</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>26781</v>
       </c>
-      <c r="AR29" s="1">
-        <f t="shared" ref="AR29:AT29" si="124">AQ29/$E29</f>
+      <c r="AS29" s="1">
+        <f t="shared" ref="AS29:AU29" si="124">AR29/$E29</f>
         <v>0.59366894992352193</v>
       </c>
-      <c r="AS29">
+      <c r="AT29">
         <v>26476</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AU29" s="1">
         <f t="shared" si="124"/>
         <v>0.58690784952672292</v>
       </c>
     </row>
-    <row r="30" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>24</v>
       </c>
@@ -7481,146 +7838,147 @@
       <c r="F30" s="2">
         <v>45051</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="3"/>
+      <c r="I30" s="10">
         <v>44997</v>
       </c>
-      <c r="I30" s="11">
+      <c r="J30" s="11">
         <f t="shared" si="4"/>
         <v>0.99751712518566138</v>
       </c>
-      <c r="J30" s="12">
+      <c r="K30" s="12">
         <v>44989</v>
       </c>
-      <c r="K30" s="11">
+      <c r="L30" s="11">
         <f t="shared" si="5"/>
         <v>0.99733977698463716</v>
       </c>
-      <c r="L30" s="12">
+      <c r="M30" s="12">
         <v>45003</v>
       </c>
-      <c r="M30" s="11">
+      <c r="N30" s="11">
         <f t="shared" si="5"/>
         <v>0.99765013633642952</v>
       </c>
-      <c r="N30" s="18">
+      <c r="O30" s="18">
         <v>45002</v>
       </c>
-      <c r="O30" s="13">
-        <f t="shared" ref="O30:Q30" si="125">N30/$E30</f>
+      <c r="P30" s="13">
+        <f t="shared" ref="P30:R30" si="125">O30/$E30</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q30" s="5">
         <v>44987</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <f t="shared" si="125"/>
         <v>0.99729543993438119</v>
       </c>
-      <c r="R30" s="5">
+      <c r="S30" s="5">
         <v>45004</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" ref="S30:U30" si="126">R30/$E30</f>
+      <c r="T30" s="1">
+        <f t="shared" ref="T30:V30" si="126">S30/$E30</f>
         <v>0.99767230486155756</v>
       </c>
-      <c r="T30" s="5">
+      <c r="U30" s="5">
         <v>44975</v>
       </c>
-      <c r="U30" s="1">
+      <c r="V30" s="1">
         <f t="shared" si="126"/>
         <v>0.99702941763284492</v>
       </c>
-      <c r="V30" s="5">
+      <c r="W30" s="5">
         <v>45003</v>
       </c>
-      <c r="W30" s="1">
-        <f t="shared" ref="W30" si="127">V30/$E30</f>
+      <c r="X30" s="1">
+        <f t="shared" ref="X30" si="127">W30/$E30</f>
         <v>0.99765013633642952</v>
       </c>
-      <c r="X30" s="24">
+      <c r="Y30" s="24">
         <v>45108</v>
       </c>
-      <c r="Y30" s="25">
+      <c r="Z30" s="25">
         <f t="shared" si="0"/>
         <v>0.99997783147487196</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AA30" s="6">
         <v>44904</v>
       </c>
-      <c r="AA30" s="25">
+      <c r="AB30" s="25">
         <f t="shared" si="1"/>
         <v>0.99545545234875521</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>44920</v>
       </c>
-      <c r="AC30" s="25">
+      <c r="AD30" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="10">
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="10">
         <v>41464</v>
       </c>
-      <c r="AF30" s="11">
+      <c r="AG30" s="11">
         <f t="shared" si="9"/>
         <v>0.9191957259083553</v>
       </c>
-      <c r="AG30" s="12">
+      <c r="AH30" s="12">
         <v>40242</v>
       </c>
-      <c r="AH30" s="11">
+      <c r="AI30" s="11">
         <f t="shared" si="10"/>
         <v>0.89210578820191089</v>
       </c>
-      <c r="AI30" s="12">
+      <c r="AJ30" s="12">
         <v>40275</v>
       </c>
-      <c r="AJ30" s="11">
+      <c r="AK30" s="11">
         <f t="shared" si="11"/>
         <v>0.89283734953113569</v>
       </c>
-      <c r="AK30" s="12">
+      <c r="AL30" s="12">
         <v>39998</v>
       </c>
-      <c r="AL30" s="13">
+      <c r="AM30" s="13">
         <f t="shared" si="12"/>
         <v>0.88669666807067327</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>26888</v>
       </c>
-      <c r="AN30" s="1">
-        <f t="shared" ref="AN30:AP30" si="128">AM30/$E30</f>
+      <c r="AO30" s="1">
+        <f t="shared" ref="AO30:AQ30" si="128">AN30/$E30</f>
         <v>0.59606730364228866</v>
       </c>
-      <c r="AO30">
+      <c r="AP30">
         <v>26317</v>
       </c>
-      <c r="AP30" s="1">
+      <c r="AQ30" s="1">
         <f t="shared" si="128"/>
         <v>0.58340907579418744</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>26009</v>
       </c>
-      <c r="AR30" s="1">
-        <f t="shared" ref="AR30:AT30" si="129">AQ30/$E30</f>
+      <c r="AS30" s="1">
+        <f t="shared" ref="AS30:AU30" si="129">AR30/$E30</f>
         <v>0.57658117005475629</v>
       </c>
-      <c r="AS30">
+      <c r="AT30">
         <v>26685</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AU30" s="1">
         <f t="shared" si="129"/>
         <v>0.59156709304129995</v>
       </c>
     </row>
-    <row r="31" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>25</v>
       </c>
@@ -7633,146 +7991,147 @@
       <c r="F31" s="2">
         <v>45051</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="31">
         <f t="shared" si="3"/>
         <v>0.99875850754871753</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="3"/>
+      <c r="I31" s="10">
         <v>44997</v>
       </c>
-      <c r="I31" s="11">
+      <c r="J31" s="11">
         <f t="shared" si="4"/>
         <v>0.99756135411355218</v>
       </c>
-      <c r="J31" s="12">
+      <c r="K31" s="12">
         <v>44989</v>
       </c>
-      <c r="K31" s="11">
+      <c r="L31" s="11">
         <f t="shared" si="5"/>
         <v>0.99738399804908329</v>
       </c>
-      <c r="L31" s="12">
+      <c r="M31" s="12">
         <v>45001</v>
       </c>
-      <c r="M31" s="11">
+      <c r="N31" s="11">
         <f t="shared" si="5"/>
         <v>0.99765003214578674</v>
       </c>
-      <c r="N31" s="18">
+      <c r="O31" s="18">
         <v>45002</v>
       </c>
-      <c r="O31" s="13">
-        <f t="shared" ref="O31:Q31" si="130">N31/$E31</f>
+      <c r="P31" s="13">
+        <f t="shared" ref="P31:R31" si="130">O31/$E31</f>
         <v>0.99767220165384529</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q31" s="5">
         <v>44987</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="1">
         <f t="shared" si="130"/>
         <v>0.99733965903296606</v>
       </c>
-      <c r="R31" s="5">
+      <c r="S31" s="5">
         <v>45004</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" ref="S31:U31" si="131">R31/$E31</f>
+      <c r="T31" s="1">
+        <f t="shared" ref="T31:V31" si="131">S31/$E31</f>
         <v>0.99771654066996251</v>
       </c>
-      <c r="T31" s="5">
+      <c r="U31" s="5">
         <v>44975</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="1">
         <f t="shared" si="131"/>
         <v>0.99707362493626261</v>
       </c>
-      <c r="V31" s="5">
+      <c r="W31" s="5">
         <v>45001</v>
       </c>
-      <c r="W31" s="1">
-        <f t="shared" ref="W31" si="132">V31/$E31</f>
+      <c r="X31" s="1">
+        <f t="shared" ref="X31" si="132">W31/$E31</f>
         <v>0.99765003214578674</v>
       </c>
-      <c r="X31" s="24">
+      <c r="Y31" s="24">
         <v>45101</v>
       </c>
-      <c r="Y31" s="25">
+      <c r="Z31" s="25">
         <f t="shared" si="0"/>
         <v>0.99986698295164833</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AA31" s="6">
         <v>44904</v>
       </c>
-      <c r="AA31" s="25">
+      <c r="AB31" s="25">
         <f t="shared" si="1"/>
         <v>0.99549958986410092</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>44920</v>
       </c>
-      <c r="AC31" s="25">
+      <c r="AD31" s="25">
         <f t="shared" si="2"/>
         <v>0.99585430199303882</v>
       </c>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="10">
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="10">
         <v>39284</v>
       </c>
-      <c r="AF31" s="11">
+      <c r="AG31" s="11">
         <f t="shared" si="9"/>
         <v>0.87090695457467804</v>
       </c>
-      <c r="AG31" s="12">
+      <c r="AH31" s="12">
         <v>38286</v>
       </c>
-      <c r="AH31" s="11">
+      <c r="AI31" s="11">
         <f t="shared" si="10"/>
         <v>0.84878178553217909</v>
       </c>
-      <c r="AI31" s="12">
+      <c r="AJ31" s="12">
         <v>38127</v>
       </c>
-      <c r="AJ31" s="11">
+      <c r="AK31" s="11">
         <f t="shared" si="11"/>
         <v>0.84525683375085903</v>
       </c>
-      <c r="AK31" s="12">
+      <c r="AL31" s="12">
         <v>37984</v>
       </c>
-      <c r="AL31" s="13">
+      <c r="AM31" s="13">
         <f t="shared" si="12"/>
         <v>0.84208659409847697</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>27196</v>
       </c>
-      <c r="AN31" s="1">
-        <f t="shared" ref="AN31:AP31" si="133">AM31/$E31</f>
+      <c r="AO31" s="1">
+        <f t="shared" ref="AO31:AQ31" si="133">AN31/$E31</f>
         <v>0.60292194116212561</v>
       </c>
-      <c r="AO31">
+      <c r="AP31">
         <v>25969</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AQ31" s="1">
         <f t="shared" si="133"/>
         <v>0.57571995477420357</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>25430</v>
       </c>
-      <c r="AR31" s="1">
-        <f t="shared" ref="AR31:AT31" si="134">AQ31/$E31</f>
+      <c r="AS31" s="1">
+        <f t="shared" ref="AS31:AU31" si="134">AR31/$E31</f>
         <v>0.56377058993060947</v>
       </c>
-      <c r="AS31">
+      <c r="AT31">
         <v>25911</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AU31" s="1">
         <f t="shared" si="134"/>
         <v>0.57443412330680377</v>
       </c>
     </row>
-    <row r="32" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>26</v>
       </c>
@@ -7785,146 +8144,147 @@
       <c r="F32" s="2">
         <v>45051</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="31">
         <f t="shared" si="3"/>
         <v>0.99869208601197079</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="3"/>
+      <c r="I32" s="10">
         <v>44996</v>
       </c>
-      <c r="I32" s="11">
+      <c r="J32" s="11">
         <f t="shared" si="4"/>
         <v>0.99747284415872317</v>
       </c>
-      <c r="J32" s="12">
+      <c r="K32" s="12">
         <v>44989</v>
       </c>
-      <c r="K32" s="11">
+      <c r="L32" s="11">
         <f t="shared" si="5"/>
         <v>0.99731766792285526</v>
       </c>
-      <c r="L32" s="12">
+      <c r="M32" s="12">
         <v>45003</v>
       </c>
-      <c r="M32" s="11">
+      <c r="N32" s="11">
         <f t="shared" si="5"/>
         <v>0.99762802039459098</v>
       </c>
-      <c r="N32" s="18">
+      <c r="O32" s="18">
         <v>45002</v>
       </c>
-      <c r="O32" s="13">
-        <f t="shared" ref="O32:Q32" si="135">N32/$E32</f>
+      <c r="P32" s="13">
+        <f t="shared" ref="P32:R32" si="135">O32/$E32</f>
         <v>0.99760585236089561</v>
       </c>
-      <c r="P32" s="5">
+      <c r="Q32" s="5">
         <v>44986</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <f t="shared" si="135"/>
         <v>0.99725116382176904</v>
       </c>
-      <c r="R32" s="5">
+      <c r="S32" s="5">
         <v>45003</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" ref="S32:U32" si="136">R32/$E32</f>
+      <c r="T32" s="1">
+        <f t="shared" ref="T32:V32" si="136">S32/$E32</f>
         <v>0.99762802039459098</v>
       </c>
-      <c r="T32" s="5">
+      <c r="U32" s="5">
         <v>44975</v>
       </c>
-      <c r="U32" s="1">
+      <c r="V32" s="1">
         <f t="shared" si="136"/>
         <v>0.99700731545111954</v>
       </c>
-      <c r="V32" s="5">
+      <c r="W32" s="5">
         <v>45003</v>
       </c>
-      <c r="W32" s="1">
-        <f t="shared" ref="W32" si="137">V32/$E32</f>
+      <c r="X32" s="1">
+        <f t="shared" ref="X32" si="137">W32/$E32</f>
         <v>0.99762802039459098</v>
       </c>
-      <c r="X32" s="24">
+      <c r="Y32" s="24">
         <v>45101</v>
       </c>
-      <c r="Y32" s="25">
+      <c r="Z32" s="25">
         <f t="shared" si="0"/>
         <v>0.99980048769674135</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AA32" s="6">
         <v>44904</v>
       </c>
-      <c r="AA32" s="25">
+      <c r="AB32" s="25">
         <f t="shared" si="1"/>
         <v>0.99543338505874523</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>44920</v>
       </c>
-      <c r="AC32" s="25">
+      <c r="AD32" s="25">
         <f t="shared" si="2"/>
         <v>0.99578807359787191</v>
       </c>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="10">
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="10">
         <v>38438</v>
       </c>
-      <c r="AF32" s="11">
+      <c r="AG32" s="11">
         <f t="shared" si="9"/>
         <v>0.85209487918421634</v>
       </c>
-      <c r="AG32" s="12">
+      <c r="AH32" s="12">
         <v>37638</v>
       </c>
-      <c r="AH32" s="11">
+      <c r="AI32" s="11">
         <f t="shared" si="10"/>
         <v>0.83436045222788735</v>
       </c>
-      <c r="AI32" s="12">
+      <c r="AJ32" s="12">
         <v>37394</v>
       </c>
-      <c r="AJ32" s="11">
+      <c r="AK32" s="11">
         <f t="shared" si="11"/>
         <v>0.82895145200620701</v>
       </c>
-      <c r="AK32" s="12">
+      <c r="AL32" s="12">
         <v>37617</v>
       </c>
-      <c r="AL32" s="13">
+      <c r="AM32" s="13">
         <f t="shared" si="12"/>
         <v>0.83389492352028372</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>25505</v>
       </c>
-      <c r="AN32" s="1">
-        <f t="shared" ref="AN32:AP32" si="138">AM32/$E32</f>
+      <c r="AO32" s="1">
+        <f t="shared" ref="AO32:AQ32" si="138">AN32/$E32</f>
         <v>0.56539569940146306</v>
       </c>
-      <c r="AO32">
+      <c r="AP32">
         <v>25891</v>
       </c>
-      <c r="AP32" s="1">
+      <c r="AQ32" s="1">
         <f t="shared" si="138"/>
         <v>0.57395256040789178</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>26703</v>
       </c>
-      <c r="AR32" s="1">
-        <f t="shared" ref="AR32:AT32" si="139">AQ32/$E32</f>
+      <c r="AS32" s="1">
+        <f t="shared" ref="AS32:AU32" si="139">AR32/$E32</f>
         <v>0.59195300376856574</v>
       </c>
-      <c r="AS32">
+      <c r="AT32">
         <v>25701</v>
       </c>
-      <c r="AT32" s="1">
+      <c r="AU32" s="1">
         <f t="shared" si="139"/>
         <v>0.56974063400576369</v>
       </c>
     </row>
-    <row r="33" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C33">
         <v>27</v>
       </c>
@@ -7937,146 +8297,147 @@
       <c r="F33" s="2">
         <v>45051</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="31">
         <f t="shared" si="3"/>
         <v>0.99866994746292481</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="3"/>
+      <c r="I33" s="10">
         <v>44997</v>
       </c>
-      <c r="I33" s="11">
+      <c r="J33" s="11">
         <f t="shared" si="4"/>
         <v>0.99747290017955714</v>
       </c>
-      <c r="J33" s="12">
+      <c r="K33" s="12">
         <v>44989</v>
       </c>
-      <c r="K33" s="11">
+      <c r="L33" s="11">
         <f t="shared" si="5"/>
         <v>0.99729555984128038</v>
       </c>
-      <c r="L33" s="12">
+      <c r="M33" s="12">
         <v>45003</v>
       </c>
-      <c r="M33" s="11">
+      <c r="N33" s="11">
         <f t="shared" si="5"/>
         <v>0.99760590543326466</v>
       </c>
-      <c r="N33" s="18">
+      <c r="O33" s="18">
         <v>45002</v>
       </c>
-      <c r="O33" s="13">
-        <f t="shared" ref="O33:Q33" si="140">N33/$E33</f>
+      <c r="P33" s="13">
+        <f t="shared" ref="P33:R33" si="140">O33/$E33</f>
         <v>0.99758373789097998</v>
       </c>
-      <c r="P33" s="5">
+      <c r="Q33" s="5">
         <v>44987</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="R33" s="1">
         <f t="shared" si="140"/>
         <v>0.99725122475671124</v>
       </c>
-      <c r="R33" s="5">
+      <c r="S33" s="5">
         <v>45004</v>
       </c>
-      <c r="S33" s="1">
-        <f t="shared" ref="S33:U33" si="141">R33/$E33</f>
+      <c r="T33" s="1">
+        <f t="shared" ref="T33:V33" si="141">S33/$E33</f>
         <v>0.99762807297554923</v>
       </c>
-      <c r="T33" s="5">
+      <c r="U33" s="5">
         <v>44975</v>
       </c>
-      <c r="U33" s="1">
+      <c r="V33" s="1">
         <f t="shared" si="141"/>
         <v>0.9969852142492962</v>
       </c>
-      <c r="V33" s="5">
+      <c r="W33" s="5">
         <v>45003</v>
       </c>
-      <c r="W33" s="1">
-        <f t="shared" ref="W33" si="142">V33/$E33</f>
+      <c r="X33" s="1">
+        <f t="shared" ref="X33" si="142">W33/$E33</f>
         <v>0.99760590543326466</v>
       </c>
-      <c r="X33" s="24">
+      <c r="Y33" s="24">
         <v>45109</v>
       </c>
-      <c r="Y33" s="25">
+      <c r="Z33" s="25">
         <f t="shared" si="0"/>
         <v>0.99995566491543086</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AA33" s="6">
         <v>44904</v>
       </c>
-      <c r="AA33" s="25">
+      <c r="AB33" s="25">
         <f t="shared" si="1"/>
         <v>0.99541131874709055</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>44920</v>
       </c>
-      <c r="AC33" s="25">
+      <c r="AD33" s="25">
         <f t="shared" si="2"/>
         <v>0.99576599942364385</v>
       </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="10">
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="10">
         <v>39377</v>
       </c>
-      <c r="AF33" s="11">
+      <c r="AG33" s="11">
         <f t="shared" si="9"/>
         <v>0.87289131254017871</v>
       </c>
-      <c r="AG33" s="12">
+      <c r="AH33" s="12">
         <v>37911</v>
       </c>
-      <c r="AH33" s="11">
+      <c r="AI33" s="11">
         <f t="shared" si="10"/>
         <v>0.84039369555097432</v>
       </c>
-      <c r="AI33" s="12">
+      <c r="AJ33" s="12">
         <v>38306</v>
       </c>
-      <c r="AJ33" s="11">
+      <c r="AK33" s="11">
         <f t="shared" si="11"/>
         <v>0.8491498747533861</v>
       </c>
-      <c r="AK33" s="12">
+      <c r="AL33" s="12">
         <v>38214</v>
       </c>
-      <c r="AL33" s="13">
+      <c r="AM33" s="13">
         <f t="shared" si="12"/>
         <v>0.84711046086320407</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>24723</v>
       </c>
-      <c r="AN33" s="1">
-        <f t="shared" ref="AN33:AP33" si="143">AM33/$E33</f>
+      <c r="AO33" s="1">
+        <f t="shared" ref="AO33:AQ33" si="143">AN33/$E33</f>
         <v>0.54804814790184209</v>
       </c>
-      <c r="AO33">
+      <c r="AP33">
         <v>26088</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AQ33" s="1">
         <f t="shared" si="143"/>
         <v>0.57830684312030323</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>26031</v>
       </c>
-      <c r="AR33" s="1">
-        <f t="shared" ref="AR33:AT33" si="144">AQ33/$E33</f>
+      <c r="AS33" s="1">
+        <f t="shared" ref="AS33:AU33" si="144">AR33/$E33</f>
         <v>0.57704329321008185</v>
       </c>
-      <c r="AS33">
+      <c r="AT33">
         <v>25791</v>
       </c>
-      <c r="AT33" s="1">
+      <c r="AU33" s="1">
         <f t="shared" si="144"/>
         <v>0.57172308306178099</v>
       </c>
     </row>
-    <row r="34" spans="3:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:47" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>28</v>
       </c>
@@ -8089,952 +8450,1080 @@
       <c r="F34" s="2">
         <v>45051</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="31">
         <f t="shared" si="3"/>
         <v>0.99871422554257461</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="3"/>
+      <c r="I34" s="10">
         <v>44997</v>
       </c>
-      <c r="I34" s="11">
+      <c r="J34" s="11">
         <f t="shared" si="4"/>
         <v>0.99751712518566138</v>
       </c>
-      <c r="J34" s="12">
+      <c r="K34" s="12">
         <v>44989</v>
       </c>
-      <c r="K34" s="11">
+      <c r="L34" s="11">
         <f t="shared" si="5"/>
         <v>0.99733977698463716</v>
       </c>
-      <c r="L34" s="12">
+      <c r="M34" s="12">
         <v>45003</v>
       </c>
-      <c r="M34" s="11">
+      <c r="N34" s="11">
         <f t="shared" si="5"/>
         <v>0.99765013633642952</v>
       </c>
-      <c r="N34" s="18">
+      <c r="O34" s="18">
         <v>45000</v>
       </c>
-      <c r="O34" s="13">
-        <f t="shared" ref="O34:Q34" si="145">N34/$E34</f>
+      <c r="P34" s="13">
+        <f t="shared" ref="P34:R34" si="145">O34/$E34</f>
         <v>0.9975836307610455</v>
       </c>
-      <c r="P34" s="5">
+      <c r="Q34" s="5">
         <v>44985</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="R34" s="1">
         <f t="shared" si="145"/>
         <v>0.99725110288412511</v>
       </c>
-      <c r="R34" s="5">
+      <c r="S34" s="5">
         <v>45004</v>
       </c>
-      <c r="S34" s="1">
-        <f t="shared" ref="S34:U34" si="146">R34/$E34</f>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34:V34" si="146">S34/$E34</f>
         <v>0.99767230486155756</v>
       </c>
-      <c r="T34" s="5">
+      <c r="U34" s="5">
         <v>44974</v>
       </c>
-      <c r="U34" s="1">
+      <c r="V34" s="1">
         <f t="shared" si="146"/>
         <v>0.99700724910771688</v>
       </c>
-      <c r="V34" s="5">
+      <c r="W34" s="5">
         <v>45002</v>
       </c>
-      <c r="W34" s="1">
-        <f t="shared" ref="W34" si="147">V34/$E34</f>
+      <c r="X34" s="1">
+        <f t="shared" ref="X34" si="147">W34/$E34</f>
         <v>0.99762796781130147</v>
       </c>
-      <c r="X34" s="24">
+      <c r="Y34" s="24">
         <v>45107</v>
       </c>
-      <c r="Y34" s="25">
+      <c r="Z34" s="25">
         <f t="shared" si="0"/>
         <v>0.99995566294974392</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AA34" s="6">
         <v>44904</v>
       </c>
-      <c r="AA34" s="25">
+      <c r="AB34" s="25">
         <f t="shared" si="1"/>
         <v>0.99545545234875521</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>44920</v>
       </c>
-      <c r="AC34" s="25">
+      <c r="AD34" s="25">
         <f t="shared" si="2"/>
         <v>0.99581014875080365</v>
       </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="10">
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="10">
         <v>39898</v>
       </c>
-      <c r="AF34" s="11">
+      <c r="AG34" s="11">
         <f t="shared" si="9"/>
         <v>0.88447981555787092</v>
       </c>
-      <c r="AG34" s="12">
+      <c r="AH34" s="12">
         <v>39259</v>
       </c>
-      <c r="AH34" s="11">
+      <c r="AI34" s="11">
         <f t="shared" si="10"/>
         <v>0.87031412800106411</v>
       </c>
-      <c r="AI34" s="12">
+      <c r="AJ34" s="12">
         <v>39021</v>
       </c>
-      <c r="AJ34" s="11">
+      <c r="AK34" s="11">
         <f t="shared" si="11"/>
         <v>0.86503801902059452</v>
       </c>
-      <c r="AK34" s="12">
+      <c r="AL34" s="12">
         <v>39077</v>
       </c>
-      <c r="AL34" s="13">
+      <c r="AM34" s="13">
         <f t="shared" si="12"/>
         <v>0.86627945642776383</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>26404</v>
       </c>
-      <c r="AN34" s="1">
-        <f t="shared" ref="AN34:AP34" si="148">AM34/$E34</f>
+      <c r="AO34" s="1">
+        <f t="shared" ref="AO34:AQ34" si="148">AN34/$E34</f>
         <v>0.58533773748032547</v>
       </c>
-      <c r="AO34">
+      <c r="AP34">
         <v>25413</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AQ34" s="1">
         <f t="shared" si="148"/>
         <v>0.56336872907845437</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>25077</v>
       </c>
-      <c r="AR34" s="1">
-        <f t="shared" ref="AR34:AT34" si="149">AQ34/$E34</f>
+      <c r="AS34" s="1">
+        <f t="shared" ref="AS34:AU34" si="149">AR34/$E34</f>
         <v>0.55592010463543862</v>
       </c>
-      <c r="AS34">
+      <c r="AT34">
         <v>25956</v>
       </c>
-      <c r="AT34" s="1">
+      <c r="AU34" s="1">
         <f t="shared" si="149"/>
         <v>0.57540623822297099</v>
       </c>
     </row>
-    <row r="35" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="27">
-        <f>STDEV(W6:W34)</f>
+    <row r="35" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <f>SUM(E6:E34)</f>
+        <v>1308177</v>
+      </c>
+      <c r="F35" s="2">
+        <f>SUM(F6:F34)</f>
+        <v>1306478</v>
+      </c>
+      <c r="G35" s="31">
+        <f>F35/E35</f>
+        <v>0.99870124608520106</v>
+      </c>
+      <c r="H35" s="28">
+        <f>E35-F35</f>
+        <v>1699</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="2">
+        <f>SUM(AA6:AA34)</f>
+        <v>1302214</v>
+      </c>
+      <c r="AB35" s="31">
+        <f>AA35/E35</f>
+        <v>0.99544174832610577</v>
+      </c>
+      <c r="AC35"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="11"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="11"/>
+      <c r="AL35" s="12"/>
+      <c r="AM35" s="13"/>
+      <c r="AO35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="F36" s="2"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="27">
+        <f>STDEV(X6:X34)</f>
         <v>7.2588219721654405E-4</v>
       </c>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="27">
-        <f>STDEV(Y6:Y34)</f>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="27">
+        <f>STDEV(Z6:Z34)</f>
         <v>1.3648153953441041E-2</v>
       </c>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="27">
-        <f>STDEV(AA6:AA34)</f>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="29">
+        <f>STDEV(AB6:AB34)</f>
         <v>3.4605029290272368E-5</v>
       </c>
-      <c r="AB35"/>
-      <c r="AC35" s="27">
-        <f>STDEV(AC6:AC34)</f>
+      <c r="AC36"/>
+      <c r="AD36" s="29">
+        <f>STDEV(AD6:AD34)</f>
         <v>3.4668073284761751E-5</v>
       </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="25">
-        <f>STDEV(AF6:AF34)</f>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="25">
+        <f>STDEV(AG6:AG34)</f>
         <v>3.5923439972241879E-2</v>
       </c>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="11"/>
-      <c r="AI35" s="12"/>
-      <c r="AJ35" s="11"/>
-      <c r="AK35" s="12"/>
-      <c r="AL35" s="13"/>
-      <c r="AN35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AT35" s="1"/>
+      <c r="AH36" s="12"/>
+      <c r="AI36" s="11"/>
+      <c r="AJ36" s="12"/>
+      <c r="AK36" s="11"/>
+      <c r="AL36" s="12"/>
+      <c r="AM36" s="13"/>
+      <c r="AO36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AU36" s="1"/>
     </row>
-    <row r="36" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C36">
+    <row r="37" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>29</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>30</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>9018</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>9010</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G37" s="31">
         <f t="shared" si="3"/>
         <v>0.9991128853404303</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H37" s="3"/>
+      <c r="I37" s="10">
         <v>8959</v>
       </c>
-      <c r="I36" s="11">
+      <c r="J37" s="11">
         <f t="shared" si="4"/>
         <v>0.99345752938567311</v>
       </c>
-      <c r="J36" s="12">
+      <c r="K37" s="12">
         <v>8955</v>
       </c>
-      <c r="K36" s="11">
+      <c r="L37" s="11">
         <f t="shared" si="5"/>
         <v>0.99301397205588826</v>
       </c>
-      <c r="L36" s="12">
+      <c r="M37" s="12">
         <v>8963</v>
       </c>
-      <c r="M36" s="11">
+      <c r="N37" s="11">
         <f t="shared" si="5"/>
         <v>0.99390108671545796</v>
       </c>
-      <c r="N36" s="18">
+      <c r="O37" s="18">
         <v>8962</v>
       </c>
-      <c r="O36" s="13">
-        <f t="shared" ref="O36:Q36" si="150">N36/$E36</f>
+      <c r="P37" s="13">
+        <f t="shared" ref="P37:R37" si="150">O37/$E37</f>
         <v>0.99379019738301178</v>
       </c>
-      <c r="P36" s="5">
+      <c r="Q37" s="5">
         <v>8962</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R37" s="1">
         <f t="shared" si="150"/>
         <v>0.99379019738301178</v>
       </c>
-      <c r="R36" s="5">
+      <c r="S37" s="5">
         <v>8968</v>
       </c>
-      <c r="S36" s="1">
-        <f t="shared" ref="S36:U36" si="151">R36/$E36</f>
+      <c r="T37" s="1">
+        <f t="shared" ref="T37:V37" si="151">S37/$E37</f>
         <v>0.9944555333776891</v>
       </c>
-      <c r="T36" s="5">
+      <c r="U37" s="5">
         <v>8942</v>
       </c>
-      <c r="U36" s="1">
+      <c r="V37" s="1">
         <f t="shared" si="151"/>
         <v>0.99157241073408742</v>
       </c>
-      <c r="V36" s="5">
+      <c r="W37" s="5">
         <v>8966</v>
       </c>
-      <c r="W36" s="1">
-        <f t="shared" ref="W36" si="152">V36/$E36</f>
+      <c r="X37" s="1">
+        <f t="shared" ref="X37" si="152">W37/$E37</f>
         <v>0.99423375471279662</v>
       </c>
-      <c r="X36" s="24">
+      <c r="Y37" s="24">
         <v>8951</v>
       </c>
-      <c r="Y36" s="25">
+      <c r="Z37" s="25">
         <f t="shared" si="0"/>
         <v>0.9925704147261033</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AA37" s="6">
         <v>8932</v>
       </c>
-      <c r="AA36" s="25">
+      <c r="AB37" s="25">
         <f t="shared" si="1"/>
         <v>0.99046351740962524</v>
       </c>
-      <c r="AB36">
+      <c r="AC37">
         <v>8942</v>
       </c>
-      <c r="AC36" s="25">
+      <c r="AD37" s="25">
         <f t="shared" si="2"/>
         <v>0.99157241073408742</v>
       </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="10">
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="10">
         <v>8051</v>
       </c>
-      <c r="AF36" s="11">
+      <c r="AG37" s="11">
         <f t="shared" si="9"/>
         <v>0.89277001552450652</v>
       </c>
-      <c r="AG36" s="12">
+      <c r="AH37" s="12">
         <v>7883</v>
       </c>
-      <c r="AH36" s="11">
+      <c r="AI37" s="11">
         <f t="shared" si="10"/>
         <v>0.87414060767354185</v>
       </c>
-      <c r="AI36" s="12">
+      <c r="AJ37" s="12">
         <v>7884</v>
       </c>
-      <c r="AJ36" s="11">
+      <c r="AK37" s="11">
         <f t="shared" si="11"/>
         <v>0.87425149700598803</v>
       </c>
-      <c r="AK36" s="12">
+      <c r="AL37" s="12">
         <v>7885</v>
       </c>
-      <c r="AL36" s="13">
+      <c r="AM37" s="13">
         <f t="shared" si="12"/>
         <v>0.87436238633843422</v>
       </c>
-      <c r="AM36">
+      <c r="AN37">
         <v>6585</v>
       </c>
-      <c r="AN36" s="1">
-        <f t="shared" ref="AN36:AP36" si="153">AM36/$E36</f>
+      <c r="AO37" s="1">
+        <f t="shared" ref="AO37:AQ37" si="153">AN37/$E37</f>
         <v>0.73020625415834994</v>
       </c>
-      <c r="AO36">
+      <c r="AP37">
         <v>6674</v>
       </c>
-      <c r="AP36" s="1">
+      <c r="AQ37" s="1">
         <f t="shared" si="153"/>
         <v>0.74007540474606348</v>
       </c>
-      <c r="AQ36">
+      <c r="AR37">
         <v>6777</v>
       </c>
-      <c r="AR36" s="1">
-        <f t="shared" ref="AR36:AT36" si="154">AQ36/$E36</f>
+      <c r="AS37" s="1">
+        <f t="shared" ref="AS37:AU37" si="154">AR37/$E37</f>
         <v>0.75149700598802394</v>
       </c>
-      <c r="AS36">
+      <c r="AT37">
         <v>6633</v>
       </c>
-      <c r="AT36" s="1">
+      <c r="AU37" s="1">
         <f t="shared" si="154"/>
         <v>0.73552894211576847</v>
       </c>
     </row>
-    <row r="37" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C37">
+    <row r="38" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>30</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E37">
+      <c r="E38">
         <v>9018</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <v>9010</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G38" s="31">
         <f t="shared" si="3"/>
         <v>0.9991128853404303</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H38" s="3"/>
+      <c r="I38" s="10">
         <v>8953</v>
       </c>
-      <c r="I37" s="11">
+      <c r="J38" s="11">
         <f t="shared" si="4"/>
         <v>0.99279219339099578</v>
       </c>
-      <c r="J37" s="12">
+      <c r="K38" s="12">
         <v>8965</v>
       </c>
-      <c r="K37" s="11">
+      <c r="L38" s="11">
         <f t="shared" si="5"/>
         <v>0.99412286538035044</v>
       </c>
-      <c r="L37" s="12">
+      <c r="M38" s="12">
         <v>8967</v>
       </c>
-      <c r="M37" s="11">
+      <c r="N38" s="11">
         <f t="shared" si="5"/>
         <v>0.99434464404524281</v>
       </c>
-      <c r="N37" s="18">
+      <c r="O38" s="18">
         <v>8957</v>
       </c>
-      <c r="O37" s="13">
-        <f t="shared" ref="O37:Q37" si="155">N37/$E37</f>
+      <c r="P38" s="13">
+        <f t="shared" ref="P38:R38" si="155">O38/$E38</f>
         <v>0.99323575072078063</v>
       </c>
-      <c r="P37" s="5">
+      <c r="Q38" s="5">
         <v>8955</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R38" s="1">
         <f t="shared" si="155"/>
         <v>0.99301397205588826</v>
       </c>
-      <c r="R37" s="5">
+      <c r="S38" s="5">
         <v>8961</v>
       </c>
-      <c r="S37" s="1">
-        <f t="shared" ref="S37:U37" si="156">R37/$E37</f>
+      <c r="T38" s="1">
+        <f t="shared" ref="T38:V38" si="156">S38/$E38</f>
         <v>0.99367930805056559</v>
       </c>
-      <c r="T37" s="5">
+      <c r="U38" s="5">
         <v>8947</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V38" s="1">
         <f t="shared" si="156"/>
         <v>0.99212685739631845</v>
       </c>
-      <c r="V37" s="5">
+      <c r="W38" s="5">
         <v>8965</v>
       </c>
-      <c r="W37" s="1">
-        <f t="shared" ref="W37" si="157">V37/$E37</f>
+      <c r="X38" s="1">
+        <f t="shared" ref="X38" si="157">W38/$E38</f>
         <v>0.99412286538035044</v>
       </c>
-      <c r="X37" s="24">
+      <c r="Y38" s="24">
         <v>8959</v>
       </c>
-      <c r="Y37" s="25">
+      <c r="Z38" s="25">
         <f t="shared" si="0"/>
         <v>0.99345752938567311</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AA38" s="6">
         <v>8932</v>
       </c>
-      <c r="AA37" s="25">
+      <c r="AB38" s="25">
         <f t="shared" si="1"/>
         <v>0.99046351740962524</v>
       </c>
-      <c r="AB37">
+      <c r="AC38">
         <v>8939</v>
       </c>
-      <c r="AC37" s="25">
+      <c r="AD38" s="25">
         <f t="shared" si="2"/>
         <v>0.99123974273674875</v>
       </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="10">
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="10">
         <v>8083</v>
       </c>
-      <c r="AF37" s="11">
+      <c r="AG38" s="11">
         <f t="shared" si="9"/>
         <v>0.89631847416278554</v>
       </c>
-      <c r="AG37" s="12">
+      <c r="AH38" s="12">
         <v>7914</v>
       </c>
-      <c r="AH37" s="11">
+      <c r="AI38" s="11">
         <f t="shared" si="10"/>
         <v>0.87757817697937457</v>
       </c>
-      <c r="AI37" s="12">
+      <c r="AJ38" s="12">
         <v>8000</v>
       </c>
-      <c r="AJ37" s="11">
+      <c r="AK38" s="11">
         <f t="shared" si="11"/>
         <v>0.88711465956974944</v>
       </c>
-      <c r="AK37" s="12">
+      <c r="AL38" s="12">
         <v>7913</v>
       </c>
-      <c r="AL37" s="13">
+      <c r="AM38" s="13">
         <f t="shared" si="12"/>
         <v>0.87746728764692838</v>
       </c>
-      <c r="AM37">
+      <c r="AN38">
         <v>7054</v>
       </c>
-      <c r="AN37" s="1">
-        <f t="shared" ref="AN37:AP37" si="158">AM37/$E37</f>
+      <c r="AO38" s="1">
+        <f t="shared" ref="AO38:AQ38" si="158">AN38/$E38</f>
         <v>0.78221335107562651</v>
       </c>
-      <c r="AO37">
+      <c r="AP38">
         <v>7041</v>
       </c>
-      <c r="AP37" s="1">
+      <c r="AQ38" s="1">
         <f t="shared" si="158"/>
         <v>0.78077178975382566</v>
       </c>
-      <c r="AQ37">
+      <c r="AR38">
         <v>6973</v>
       </c>
-      <c r="AR37" s="1">
-        <f t="shared" ref="AR37:AT37" si="159">AQ37/$E37</f>
+      <c r="AS38" s="1">
+        <f t="shared" ref="AS38:AU38" si="159">AR38/$E38</f>
         <v>0.77323131514748278</v>
       </c>
-      <c r="AS37">
+      <c r="AT38">
         <v>6956</v>
       </c>
-      <c r="AT37" s="1">
+      <c r="AU38" s="1">
         <f t="shared" si="159"/>
         <v>0.77134619649589709</v>
       </c>
     </row>
-    <row r="38" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C38">
+    <row r="39" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C39">
         <v>31</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>32</v>
       </c>
-      <c r="E38">
+      <c r="E39">
         <v>9018</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="2">
         <v>9010</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G39" s="31">
         <f t="shared" si="3"/>
         <v>0.9991128853404303</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H39" s="3"/>
+      <c r="I39" s="10">
         <v>8963</v>
       </c>
-      <c r="I38" s="11">
+      <c r="J39" s="11">
         <f t="shared" si="4"/>
         <v>0.99390108671545796</v>
       </c>
-      <c r="J38" s="12">
+      <c r="K39" s="12">
         <v>8952</v>
       </c>
-      <c r="K38" s="11">
+      <c r="L39" s="11">
         <f t="shared" si="5"/>
         <v>0.9926813040585496</v>
       </c>
-      <c r="L38" s="12">
+      <c r="M39" s="12">
         <v>8966</v>
       </c>
-      <c r="M38" s="11">
+      <c r="N39" s="11">
         <f t="shared" si="5"/>
         <v>0.99423375471279662</v>
       </c>
-      <c r="N38" s="18">
+      <c r="O39" s="18">
         <v>8959</v>
       </c>
-      <c r="O38" s="13">
-        <f t="shared" ref="O38:Q38" si="160">N38/$E38</f>
+      <c r="P39" s="13">
+        <f t="shared" ref="P39:R39" si="160">O39/$E39</f>
         <v>0.99345752938567311</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q39" s="5">
         <v>8963</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R39" s="1">
         <f t="shared" si="160"/>
         <v>0.99390108671545796</v>
       </c>
-      <c r="R38" s="5">
+      <c r="S39" s="5">
         <v>8963</v>
       </c>
-      <c r="S38" s="1">
-        <f t="shared" ref="S38:U38" si="161">R38/$E38</f>
+      <c r="T39" s="1">
+        <f t="shared" ref="T39:V39" si="161">S39/$E39</f>
         <v>0.99390108671545796</v>
       </c>
-      <c r="T38" s="5">
+      <c r="U39" s="5">
         <v>8956</v>
       </c>
-      <c r="U38" s="1">
+      <c r="V39" s="1">
         <f t="shared" si="161"/>
         <v>0.99312486138833445</v>
       </c>
-      <c r="V38" s="5">
+      <c r="W39" s="5">
         <v>8961</v>
       </c>
-      <c r="W38" s="1">
-        <f t="shared" ref="W38" si="162">V38/$E38</f>
+      <c r="X39" s="1">
+        <f t="shared" ref="X39" si="162">W39/$E39</f>
         <v>0.99367930805056559</v>
       </c>
-      <c r="X38" s="24">
+      <c r="Y39" s="24">
         <v>8971</v>
       </c>
-      <c r="Y38" s="25">
+      <c r="Z39" s="25">
         <f t="shared" si="0"/>
         <v>0.99478820137502777</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AA39" s="6">
         <v>8933</v>
       </c>
-      <c r="AA38" s="25">
+      <c r="AB39" s="25">
         <f t="shared" si="1"/>
         <v>0.99057440674207142</v>
       </c>
-      <c r="AB38">
+      <c r="AC39">
         <v>8939</v>
       </c>
-      <c r="AC38" s="25">
+      <c r="AD39" s="25">
         <f t="shared" si="2"/>
         <v>0.99123974273674875</v>
       </c>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="10">
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="10">
         <v>7855</v>
       </c>
-      <c r="AF38" s="11">
+      <c r="AG39" s="11">
         <f t="shared" si="9"/>
         <v>0.87103570636504768</v>
       </c>
-      <c r="AG38" s="12">
+      <c r="AH39" s="12">
         <v>7638</v>
       </c>
-      <c r="AH38" s="11">
+      <c r="AI39" s="11">
         <f t="shared" si="10"/>
         <v>0.84697272122421818</v>
       </c>
-      <c r="AI38" s="12">
+      <c r="AJ39" s="12">
         <v>7682</v>
       </c>
-      <c r="AJ38" s="11">
+      <c r="AK39" s="11">
         <f t="shared" si="11"/>
         <v>0.85185185185185186</v>
       </c>
-      <c r="AK38" s="12">
+      <c r="AL39" s="12">
         <v>7614</v>
       </c>
-      <c r="AL38" s="13">
+      <c r="AM39" s="13">
         <f t="shared" si="12"/>
         <v>0.84431137724550898</v>
       </c>
-      <c r="AM38">
+      <c r="AN39">
         <v>6281</v>
       </c>
-      <c r="AN38" s="1">
-        <f t="shared" ref="AN38:AP38" si="163">AM38/$E38</f>
+      <c r="AO39" s="1">
+        <f t="shared" ref="AO39:AQ39" si="163">AN39/$E39</f>
         <v>0.6964958970946995</v>
       </c>
-      <c r="AO38">
+      <c r="AP39">
         <v>6385</v>
       </c>
-      <c r="AP38" s="1">
+      <c r="AQ39" s="1">
         <f t="shared" si="163"/>
         <v>0.70802838766910625</v>
       </c>
-      <c r="AQ38">
+      <c r="AR39">
         <v>6206</v>
       </c>
-      <c r="AR38" s="1">
-        <f t="shared" ref="AR38:AT38" si="164">AQ38/$E38</f>
+      <c r="AS39" s="1">
+        <f t="shared" ref="AS39:AU39" si="164">AR39/$E39</f>
         <v>0.6881791971612331</v>
       </c>
-      <c r="AS38">
+      <c r="AT39">
         <v>6426</v>
       </c>
-      <c r="AT38" s="1">
+      <c r="AU39" s="1">
         <f t="shared" si="164"/>
         <v>0.71257485029940115</v>
       </c>
     </row>
-    <row r="39" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C39">
+    <row r="40" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="C40">
         <v>32</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>33</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>9018</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F40" s="2">
         <v>9010</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G40" s="31">
         <f t="shared" si="3"/>
         <v>0.9991128853404303</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H40" s="3"/>
+      <c r="I40" s="10">
         <v>8964</v>
       </c>
-      <c r="I39" s="11">
+      <c r="J40" s="11">
         <f t="shared" si="4"/>
         <v>0.99401197604790414</v>
       </c>
-      <c r="J39" s="12">
+      <c r="K40" s="12">
         <v>8955</v>
       </c>
-      <c r="K39" s="11">
+      <c r="L40" s="11">
         <f t="shared" si="5"/>
         <v>0.99301397205588826</v>
       </c>
-      <c r="L39" s="12">
+      <c r="M40" s="12">
         <v>8968</v>
       </c>
-      <c r="M39" s="11">
+      <c r="N40" s="11">
         <f t="shared" si="5"/>
         <v>0.9944555333776891</v>
       </c>
-      <c r="N39" s="18">
+      <c r="O40" s="18">
         <v>8960</v>
       </c>
-      <c r="O39" s="13">
-        <f t="shared" ref="O39:Q40" si="165">N39/$E39</f>
+      <c r="P40" s="13">
+        <f t="shared" ref="P40:R42" si="165">O40/$E40</f>
         <v>0.9935684187181193</v>
       </c>
-      <c r="P39" s="5">
+      <c r="Q40" s="5">
         <v>8954</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="R40" s="1">
         <f t="shared" si="165"/>
         <v>0.99290308272344197</v>
       </c>
-      <c r="R39" s="5">
+      <c r="S40" s="5">
         <v>8966</v>
       </c>
-      <c r="S39" s="1">
-        <f t="shared" ref="S39:U39" si="166">R39/$E39</f>
+      <c r="T40" s="1">
+        <f t="shared" ref="T40:V40" si="166">S40/$E40</f>
         <v>0.99423375471279662</v>
       </c>
-      <c r="T39" s="5">
+      <c r="U40" s="5">
         <v>8953</v>
       </c>
-      <c r="U39" s="1">
+      <c r="V40" s="1">
         <f t="shared" si="166"/>
         <v>0.99279219339099578</v>
       </c>
-      <c r="V39" s="5">
+      <c r="W40" s="5">
         <v>8968</v>
       </c>
-      <c r="W39" s="1">
-        <f t="shared" ref="W39" si="167">V39/$E39</f>
+      <c r="X40" s="1">
+        <f t="shared" ref="X40" si="167">W40/$E40</f>
         <v>0.9944555333776891</v>
       </c>
-      <c r="X39" s="24">
+      <c r="Y40" s="24">
         <v>8973</v>
       </c>
-      <c r="Y39" s="25">
+      <c r="Z40" s="25">
         <f t="shared" si="0"/>
         <v>0.99500998003992014</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AA40" s="6">
         <v>8932</v>
       </c>
-      <c r="AA39" s="25">
+      <c r="AB40" s="25">
         <f t="shared" si="1"/>
         <v>0.99046351740962524</v>
       </c>
-      <c r="AB39">
+      <c r="AC40">
         <v>8940</v>
       </c>
-      <c r="AC39" s="25">
+      <c r="AD40" s="25">
         <f t="shared" si="2"/>
         <v>0.99135063206919494</v>
       </c>
-      <c r="AD39" s="1"/>
-      <c r="AE39" s="10">
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="10">
         <v>7959</v>
       </c>
-      <c r="AF39" s="11">
+      <c r="AG40" s="11">
         <f t="shared" si="9"/>
         <v>0.88256819693945443</v>
       </c>
-      <c r="AG39" s="12">
+      <c r="AH40" s="12">
         <v>7806</v>
       </c>
-      <c r="AH39" s="11">
+      <c r="AI40" s="11">
         <f t="shared" si="10"/>
         <v>0.86560212907518297</v>
       </c>
-      <c r="AI39" s="12">
+      <c r="AJ40" s="12">
         <v>7784</v>
       </c>
-      <c r="AJ39" s="11">
+      <c r="AK40" s="11">
         <f t="shared" si="11"/>
         <v>0.86316256376136613</v>
       </c>
-      <c r="AK39" s="12">
+      <c r="AL40" s="12">
         <v>7837</v>
       </c>
-      <c r="AL39" s="13">
+      <c r="AM40" s="13">
         <f t="shared" si="12"/>
         <v>0.8690396983810158</v>
       </c>
-      <c r="AM39">
+      <c r="AN40">
         <v>6727</v>
       </c>
-      <c r="AN39" s="1">
-        <f t="shared" ref="AN39:AP40" si="168">AM39/$E39</f>
+      <c r="AO40" s="1">
+        <f t="shared" ref="AO40:AQ42" si="168">AN40/$E40</f>
         <v>0.74595253936571304</v>
       </c>
-      <c r="AO39">
+      <c r="AP40">
         <v>6484</v>
       </c>
-      <c r="AP39" s="1">
+      <c r="AQ40" s="1">
         <f t="shared" si="168"/>
         <v>0.71900643158128186</v>
       </c>
-      <c r="AQ39">
+      <c r="AR40">
         <v>6610</v>
       </c>
-      <c r="AR39" s="1">
-        <f t="shared" ref="AR39:AT39" si="169">AQ39/$E39</f>
+      <c r="AS40" s="1">
+        <f t="shared" ref="AS40:AU40" si="169">AR40/$E40</f>
         <v>0.73297848746950545</v>
       </c>
-      <c r="AS39">
+      <c r="AT40">
         <v>6590</v>
       </c>
-      <c r="AT39" s="1">
+      <c r="AU40" s="1">
         <f t="shared" si="169"/>
         <v>0.73076070082058109</v>
       </c>
     </row>
-    <row r="40" spans="3:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="41" spans="3:47" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <f>SUM(E37:E40)</f>
+        <v>36072</v>
+      </c>
+      <c r="F41">
+        <f>SUM(F37:F40)</f>
+        <v>36040</v>
+      </c>
+      <c r="G41" s="31">
+        <f>F41/E41</f>
+        <v>0.9991128853404303</v>
+      </c>
+      <c r="H41" s="28">
+        <f>E41-F41</f>
+        <v>32</v>
+      </c>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="30">
+        <f>SUM(AA37:AA40)</f>
+        <v>35729</v>
+      </c>
+      <c r="AB41" s="31">
+        <f>AA41/E41</f>
+        <v>0.99049123974273678</v>
+      </c>
+      <c r="AC41"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="11"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="11"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="13"/>
+      <c r="AO41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AU41" s="1"/>
+    </row>
+    <row r="42" spans="3:47" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E40">
-        <f>SUM(E6:E39)</f>
+      <c r="E42">
+        <f>E35+E41</f>
         <v>1344249</v>
       </c>
-      <c r="F40">
-        <f>SUM(F6:F39)</f>
+      <c r="F42">
+        <f>F35+F41</f>
         <v>1342518</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G42" s="31">
         <f t="shared" si="3"/>
         <v>0.99871229214230395</v>
       </c>
-      <c r="H40" s="14">
-        <f>SUM(H6:H39)</f>
+      <c r="H42" s="28">
+        <f>E42-F42</f>
+        <v>1731</v>
+      </c>
+      <c r="I42" s="14">
+        <f>SUM(I6:I40)</f>
         <v>1340287</v>
       </c>
-      <c r="I40" s="15">
+      <c r="J42" s="15">
         <f t="shared" si="4"/>
         <v>0.99705262938637118</v>
       </c>
-      <c r="J40" s="16">
-        <f>SUM(J6:J39)</f>
+      <c r="K42" s="16">
+        <f>SUM(K6:K40)</f>
         <v>1340030</v>
       </c>
-      <c r="K40" s="15">
+      <c r="L42" s="15">
         <f t="shared" si="5"/>
         <v>0.99686144456867742</v>
       </c>
-      <c r="L40" s="16">
-        <f>SUM(L6:L39)</f>
+      <c r="M42" s="16">
+        <f>SUM(M6:M40)</f>
         <v>1340447</v>
       </c>
-      <c r="M40" s="15">
+      <c r="N42" s="15">
         <f t="shared" si="5"/>
         <v>0.99717165495380689</v>
       </c>
-      <c r="N40" s="16">
-        <f>SUM(N6:N39)</f>
+      <c r="O42" s="16">
+        <f>SUM(O6:O40)</f>
         <v>1340415</v>
       </c>
-      <c r="O40" s="17">
+      <c r="P42" s="17">
         <f t="shared" si="165"/>
         <v>0.99714784984031979</v>
       </c>
-      <c r="P40">
-        <f>SUM(P6:P39)</f>
+      <c r="Q42">
+        <f>SUM(Q6:Q40)</f>
         <v>1340002</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="R42" s="1">
         <f t="shared" si="165"/>
         <v>0.99684061509437616</v>
       </c>
-      <c r="R40">
-        <f>SUM(R6:R39)</f>
+      <c r="S42">
+        <f>SUM(S6:S40)</f>
         <v>1340507</v>
       </c>
-      <c r="S40" s="1">
-        <f t="shared" ref="S40" si="170">R40/$E40</f>
+      <c r="T42" s="1">
+        <f t="shared" ref="T42" si="170">S42/$E42</f>
         <v>0.99721628954159536</v>
       </c>
-      <c r="T40">
-        <f>SUM(T6:T39)</f>
+      <c r="U42">
+        <f>SUM(U6:U40)</f>
         <v>1339627</v>
       </c>
-      <c r="U40" s="1">
-        <f>T40/$E40</f>
+      <c r="V42" s="1">
+        <f>U42/$E42</f>
         <v>0.99656164892069843</v>
       </c>
-      <c r="V40">
-        <f>SUM(V6:V39)</f>
+      <c r="W42">
+        <f>SUM(W6:W40)</f>
         <v>1340479</v>
       </c>
-      <c r="W40" s="1">
-        <f>V40/$E40</f>
+      <c r="X42" s="1">
+        <f>W42/$E42</f>
         <v>0.99719546006729409</v>
       </c>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AE40" s="14">
-        <f>SUM(AE6:AE39)</f>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AF42" s="14">
+        <f>SUM(AF6:AF40)</f>
         <v>1187199</v>
       </c>
-      <c r="AF40" s="15">
+      <c r="AG42" s="15">
         <f t="shared" si="9"/>
         <v>0.8831689664638025</v>
       </c>
-      <c r="AG40" s="16">
-        <f>SUM(AG6:AG39)</f>
+      <c r="AH42" s="16">
+        <f>SUM(AH6:AH40)</f>
         <v>1156086</v>
       </c>
-      <c r="AH40" s="15">
+      <c r="AI42" s="15">
         <f t="shared" si="10"/>
         <v>0.86002370096611569</v>
       </c>
-      <c r="AI40" s="16">
-        <f>SUM(AI6:AI39)</f>
+      <c r="AJ42" s="16">
+        <f>SUM(AJ6:AJ40)</f>
         <v>1157885</v>
       </c>
-      <c r="AJ40" s="15">
+      <c r="AK42" s="15">
         <f t="shared" si="11"/>
         <v>0.86136199468997188</v>
       </c>
-      <c r="AK40" s="16">
-        <f>SUM(AK6:AK39)</f>
+      <c r="AL42" s="16">
+        <f>SUM(AL6:AL40)</f>
         <v>1155350</v>
       </c>
-      <c r="AL40" s="17">
+      <c r="AM42" s="17">
         <f t="shared" si="12"/>
         <v>0.85947618335591103</v>
       </c>
-      <c r="AM40">
-        <f>SUM(AM6:AM39)</f>
+      <c r="AN42">
+        <f>SUM(AN6:AN40)</f>
         <v>837972</v>
       </c>
-      <c r="AN40" s="1">
+      <c r="AO42" s="1">
         <f t="shared" si="168"/>
         <v>0.62337557997067505</v>
       </c>
-      <c r="AO40">
-        <f>SUM(AO6:AO39)</f>
+      <c r="AP42">
+        <f>SUM(AP6:AP40)</f>
         <v>835331</v>
       </c>
-      <c r="AP40" s="1">
+      <c r="AQ42" s="1">
         <f t="shared" si="168"/>
         <v>0.62141091419818795</v>
       </c>
-      <c r="AQ40">
-        <f>SUM(AQ6:AQ39)</f>
+      <c r="AR42">
+        <f>SUM(AR6:AR40)</f>
         <v>836516</v>
       </c>
-      <c r="AR40" s="1">
-        <f t="shared" ref="AR40:AT40" si="171">AQ40/$E40</f>
+      <c r="AS42" s="1">
+        <f t="shared" ref="AS42:AU42" si="171">AR42/$E42</f>
         <v>0.62229244730700939</v>
       </c>
-      <c r="AS40">
-        <f>SUM(AS6:AS39)</f>
+      <c r="AT42">
+        <f>SUM(AT6:AT40)</f>
         <v>836075</v>
       </c>
-      <c r="AT40" s="1">
+      <c r="AU42" s="1">
         <f t="shared" si="171"/>
         <v>0.62196438308676438</v>
       </c>
@@ -9048,13 +9537,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="6"/>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>45107</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G6">
+        <v>31032</v>
+      </c>
+      <c r="H6" s="1">
+        <f>G6/$C6</f>
+        <v>0.68796417407497723</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>45111</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G7">
+        <v>32931</v>
+      </c>
+      <c r="H7" s="1">
+        <f>G7/$C7</f>
+        <v>0.72999933497373148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>45110</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E8" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G8">
+        <v>31241</v>
+      </c>
+      <c r="H8" s="1">
+        <f>G8/$C8</f>
+        <v>0.69255154067834179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>45111</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G9">
+        <v>29983</v>
+      </c>
+      <c r="H9" s="1">
+        <f>G9/$C9</f>
+        <v>0.66464942031876928</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>45111</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G10">
+        <v>30494</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10/$C10</f>
+        <v>0.67597703442619317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>45111</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E11" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G11">
+        <v>29392</v>
+      </c>
+      <c r="H11" s="1">
+        <f>G11/$C11</f>
+        <v>0.6515484028285784</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>45109</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.99545545234875521</v>
+      </c>
+      <c r="G12">
+        <v>30006</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12/$C12</f>
+        <v>0.66518876499146506</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>45111</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G13">
+        <v>27462</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13/$C13</f>
+        <v>0.6087650462193257</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="36">
+        <f>SUM(C6:C13)</f>
+        <v>360881</v>
+      </c>
+      <c r="D14" s="36">
+        <f>SUM(D6:D13)</f>
+        <v>359232</v>
+      </c>
+      <c r="E14" s="38">
+        <f>D14/$C14</f>
+        <v>0.99543062671628602</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36">
+        <f>SUM(G6:G13)</f>
+        <v>242541</v>
+      </c>
+      <c r="H14" s="37">
+        <f>G14/$C14</f>
+        <v>0.67208027022758199</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>45107</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G15">
+        <v>27535</v>
+      </c>
+      <c r="H15" s="1">
+        <f>G15/$C15</f>
+        <v>0.61043740439399652</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>45110</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G16">
+        <v>27488</v>
+      </c>
+      <c r="H16" s="1">
+        <f>G16/$C16</f>
+        <v>0.60935491021946353</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>45111</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G17">
+        <v>26190</v>
+      </c>
+      <c r="H17" s="1">
+        <f>G17/$C17</f>
+        <v>0.58056793243333116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>45109</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.99545545234875521</v>
+      </c>
+      <c r="G18">
+        <v>25788</v>
+      </c>
+      <c r="H18" s="1">
+        <f>G18/$C18</f>
+        <v>0.57168192600146317</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="36">
+        <f>SUM(C15:C18)</f>
+        <v>180437</v>
+      </c>
+      <c r="D19" s="36">
+        <f>SUM(D15:D18)</f>
+        <v>179616</v>
+      </c>
+      <c r="E19" s="38">
+        <f>D19/$C19</f>
+        <v>0.99544993543452842</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36">
+        <f>SUM(G15:G18)</f>
+        <v>107001</v>
+      </c>
+      <c r="H19" s="37">
+        <f>G19/$C19</f>
+        <v>0.59301030276495392</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>45107</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G20">
+        <v>27380</v>
+      </c>
+      <c r="H20" s="1">
+        <f>G20/$C20</f>
+        <v>0.60700113064491101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>45110</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G21">
+        <v>27437</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21/$C21</f>
+        <v>0.60822434050099761</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>45111</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E22" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G22">
+        <v>25912</v>
+      </c>
+      <c r="H22" s="1">
+        <f>G22/$C22</f>
+        <v>0.57440535567821593</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>45109</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44903</v>
+      </c>
+      <c r="E23" s="25">
+        <v>0.99543328382362717</v>
+      </c>
+      <c r="G23">
+        <v>25804</v>
+      </c>
+      <c r="H23" s="1">
+        <f>G23/$C23</f>
+        <v>0.5720366224035115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="36">
+        <f>SUM(C20:C23)</f>
+        <v>180437</v>
+      </c>
+      <c r="D24" s="36">
+        <f>SUM(D20:D23)</f>
+        <v>179615</v>
+      </c>
+      <c r="E24" s="38">
+        <f>D24/$C24</f>
+        <v>0.9954443933339614</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36">
+        <f>SUM(G20:G23)</f>
+        <v>106533</v>
+      </c>
+      <c r="H24" s="37">
+        <f>G24/$C24</f>
+        <v>0.59041659969961813</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>45107</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G25">
+        <v>27499</v>
+      </c>
+      <c r="H25" s="1">
+        <f>G25/$C25</f>
+        <v>0.60963930210388628</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>45110</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E26" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G26">
+        <v>26446</v>
+      </c>
+      <c r="H26" s="1">
+        <f>G26/$C26</f>
+        <v>0.58625581910884506</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>45111</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G27">
+        <v>25149</v>
+      </c>
+      <c r="H27" s="1">
+        <f>G27/$C27</f>
+        <v>0.55749152091507614</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>45109</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E28" s="25">
+        <v>0.99545545234875521</v>
+      </c>
+      <c r="G28">
+        <v>25817</v>
+      </c>
+      <c r="H28" s="1">
+        <f>G28/$C28</f>
+        <v>0.57232481323017581</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="36">
+        <f>SUM(C25:C28)</f>
+        <v>180437</v>
+      </c>
+      <c r="D29" s="36">
+        <f>SUM(D25:D28)</f>
+        <v>179616</v>
+      </c>
+      <c r="E29" s="38">
+        <f>D29/$C29</f>
+        <v>0.99544993543452842</v>
+      </c>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36">
+        <f>SUM(G25:G28)</f>
+        <v>104911</v>
+      </c>
+      <c r="H29" s="37">
+        <f>G29/$C29</f>
+        <v>0.58142731258001412</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>45111</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44903</v>
+      </c>
+      <c r="E30" s="25">
+        <v>0.99538915120480598</v>
+      </c>
+      <c r="G30">
+        <v>39785</v>
+      </c>
+      <c r="H30" s="1">
+        <f>G30/$C30</f>
+        <v>0.8819356697922901</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>45107</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E31" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G31">
+        <v>27630</v>
+      </c>
+      <c r="H31" s="1">
+        <f>G31/$C31</f>
+        <v>0.612543507659565</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>45110</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E32" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G32">
+        <v>26578</v>
+      </c>
+      <c r="H32" s="1">
+        <f>G32/$C32</f>
+        <v>0.5891819995566393</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>45111</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G33">
+        <v>25630</v>
+      </c>
+      <c r="H33" s="1">
+        <f>G33/$C33</f>
+        <v>0.56815410875396244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>45109</v>
+      </c>
+      <c r="D34" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0.99545545234875521</v>
+      </c>
+      <c r="G34">
+        <v>26888</v>
+      </c>
+      <c r="H34" s="1">
+        <f>G34/$C34</f>
+        <v>0.59606730364228866</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="36">
+        <f>SUM(C30:C34)</f>
+        <v>225548</v>
+      </c>
+      <c r="D35" s="36">
+        <f>SUM(D30:D34)</f>
+        <v>224519</v>
+      </c>
+      <c r="E35" s="38">
+        <f>D35/$C35</f>
+        <v>0.99543777821128987</v>
+      </c>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36">
+        <f>SUM(G30:G34)</f>
+        <v>146511</v>
+      </c>
+      <c r="H35" s="37">
+        <f>G35/$C35</f>
+        <v>0.64957791689573841</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>45107</v>
+      </c>
+      <c r="D36" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0.99549958986410092</v>
+      </c>
+      <c r="G36">
+        <v>27196</v>
+      </c>
+      <c r="H36" s="1">
+        <f>G36/$C36</f>
+        <v>0.60292194116212561</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>45110</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0.99543338505874523</v>
+      </c>
+      <c r="G37">
+        <v>25505</v>
+      </c>
+      <c r="H37" s="1">
+        <f>G37/$C37</f>
+        <v>0.56539569940146306</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>45111</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0.99541131874709055</v>
+      </c>
+      <c r="G38">
+        <v>24723</v>
+      </c>
+      <c r="H38" s="1">
+        <f>G38/$C38</f>
+        <v>0.54804814790184209</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>45109</v>
+      </c>
+      <c r="D39" s="6">
+        <v>44904</v>
+      </c>
+      <c r="E39" s="25">
+        <v>0.99545545234875521</v>
+      </c>
+      <c r="G39">
+        <v>26404</v>
+      </c>
+      <c r="H39" s="1">
+        <f>G39/$C39</f>
+        <v>0.58533773748032547</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="36">
+        <f>SUM(C36:C39)</f>
+        <v>180437</v>
+      </c>
+      <c r="D40" s="36">
+        <f>SUM(D36:D39)</f>
+        <v>179616</v>
+      </c>
+      <c r="E40" s="38">
+        <f>D40/$C40</f>
+        <v>0.99544993543452842</v>
+      </c>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36">
+        <f>SUM(G36:G39)</f>
+        <v>103828</v>
+      </c>
+      <c r="H40" s="37">
+        <f>G40/$C40</f>
+        <v>0.57542521766599974</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="2">
+        <v>1308177</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1302214</v>
+      </c>
+      <c r="E41" s="31">
+        <v>0.99544174832610577</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="6"/>
+      <c r="E42" s="29">
+        <v>3.4605029290272368E-5</v>
+      </c>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>9018</v>
+      </c>
+      <c r="D43" s="6">
+        <v>8932</v>
+      </c>
+      <c r="E43" s="25">
+        <v>0.99046351740962524</v>
+      </c>
+      <c r="G43">
+        <v>6585</v>
+      </c>
+      <c r="H43" s="1">
+        <f>G43/$C43</f>
+        <v>0.73020625415834994</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>9018</v>
+      </c>
+      <c r="D44" s="6">
+        <v>8932</v>
+      </c>
+      <c r="E44" s="25">
+        <v>0.99046351740962524</v>
+      </c>
+      <c r="G44">
+        <v>7054</v>
+      </c>
+      <c r="H44" s="1">
+        <f>G44/$C44</f>
+        <v>0.78221335107562651</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>9018</v>
+      </c>
+      <c r="D45" s="6">
+        <v>8933</v>
+      </c>
+      <c r="E45" s="25">
+        <v>0.99057440674207142</v>
+      </c>
+      <c r="G45">
+        <v>6281</v>
+      </c>
+      <c r="H45" s="1">
+        <f>G45/$C45</f>
+        <v>0.6964958970946995</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <v>9018</v>
+      </c>
+      <c r="D46" s="6">
+        <v>8932</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0.99046351740962524</v>
+      </c>
+      <c r="G46">
+        <v>6727</v>
+      </c>
+      <c r="H46" s="1">
+        <f>G46/$C46</f>
+        <v>0.74595253936571304</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="36">
+        <f>SUM(C43:C46)</f>
+        <v>36072</v>
+      </c>
+      <c r="D47" s="36">
+        <f>SUM(D43:D46)</f>
+        <v>35729</v>
+      </c>
+      <c r="E47" s="38">
+        <f>D47/$C47</f>
+        <v>0.99049123974273678</v>
+      </c>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36">
+        <f>SUM(G43:G46)</f>
+        <v>26647</v>
+      </c>
+      <c r="H47" s="37">
+        <f>G47/$C47</f>
+        <v>0.73871701042359728</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>1344249</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48">
+        <f>SUM(G6:G46)</f>
+        <v>1649297</v>
+      </c>
+      <c r="H48" s="1">
+        <f>G48/$C48</f>
+        <v>1.2269281955947149</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
